--- a/data/Sample-Data.xlsx
+++ b/data/Sample-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="0" windowWidth="20420" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="15960" yWindow="0" windowWidth="9400" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hist Samples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="78">
   <si>
     <t>Sample #</t>
   </si>
@@ -208,9 +208,6 @@
     <t>SECONDARY STAGE</t>
   </si>
   <si>
-    <t>Spermatogonia / oogonia present</t>
-  </si>
-  <si>
     <t>spermatocytes</t>
   </si>
   <si>
@@ -246,15 +243,31 @@
   <si>
     <t>TBD</t>
   </si>
+  <si>
+    <t>Spermatogonia/ oogonia present</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice male section </t>
+  </si>
+  <si>
+    <t>Good mixed stage/sex sample</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -304,7 +317,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -327,7 +340,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="352">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -680,8 +693,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,8 +726,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -726,11 +741,16 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="352">
+  <cellStyles count="354">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -907,6 +927,7 @@
     <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1082,6 +1103,7 @@
     <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1411,33 +1433,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S387"/>
+  <dimension ref="A1:T387"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane xSplit="1520" ySplit="1020" topLeftCell="A27" activePane="bottomRight"/>
+      <selection activeCell="X34" sqref="X34"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21" style="8" customWidth="1"/>
-    <col min="9" max="9" width="18" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1471,32 +1500,32 @@
       <c r="K1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="21" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>60</v>
       </c>
       <c r="N1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1530,10 +1559,34 @@
         <v>4.7999999999999989</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L2" s="22">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1550,7 +1603,7 @@
         <v>34.799999999999997</v>
       </c>
       <c r="F3" s="10">
-        <f t="shared" ref="F2:F21" si="0">E3/10</f>
+        <f t="shared" ref="F3:F21" si="0">E3/10</f>
         <v>3.4799999999999995</v>
       </c>
       <c r="G3" s="4">
@@ -1567,10 +1620,34 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L3" s="22">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1604,10 +1681,34 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L4" s="22">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1641,10 +1742,34 @@
         <v>6.8999999999999986</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>67</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1678,10 +1803,34 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L6" s="22">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1715,10 +1864,34 @@
         <v>2.7</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="L7" s="22">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1752,10 +1925,34 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L8" s="22">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1789,10 +1986,34 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>69</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1826,10 +2047,34 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L10" s="22">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1863,10 +2108,34 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1900,10 +2169,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L12" s="22">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1937,10 +2230,34 @@
         <v>1.9</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L13" s="22">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1974,10 +2291,34 @@
         <v>2.7</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L14" s="22">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2011,10 +2352,34 @@
         <v>1.6</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>67</v>
+      </c>
+      <c r="L15" s="22">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2048,10 +2413,37 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2085,10 +2477,34 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2122,10 +2538,34 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L18" s="22">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2159,10 +2599,34 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>75</v>
+      </c>
+      <c r="R19" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2196,10 +2660,34 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L20" s="22">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2233,10 +2721,34 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L21" s="22">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R21" t="s">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2266,10 +2778,34 @@
         <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="L22" s="22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>74</v>
+      </c>
+      <c r="R22" t="s">
+        <v>75</v>
+      </c>
+      <c r="S22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2299,10 +2835,34 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L23" s="22">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>75</v>
+      </c>
+      <c r="R23" t="s">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2332,10 +2892,34 @@
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>75</v>
+      </c>
+      <c r="R24" t="s">
+        <v>74</v>
+      </c>
+      <c r="S24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2365,10 +2949,34 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L25" s="22">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>74</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2398,10 +3006,34 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L26" s="22">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" t="s">
+        <v>74</v>
+      </c>
+      <c r="S26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2431,10 +3063,34 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L27" s="22">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>74</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>75</v>
+      </c>
+      <c r="R27" t="s">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2464,10 +3120,34 @@
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L28" s="22">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>74</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>75</v>
+      </c>
+      <c r="R28" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2497,10 +3177,34 @@
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L29" s="22">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>75</v>
+      </c>
+      <c r="R29" t="s">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2530,10 +3234,34 @@
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L30" s="22">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>75</v>
+      </c>
+      <c r="R30" t="s">
+        <v>75</v>
+      </c>
+      <c r="S30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2563,10 +3291,34 @@
         <v>5</v>
       </c>
       <c r="K31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L31" s="22">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R31" t="s">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2596,10 +3348,34 @@
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L32" s="22">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>75</v>
+      </c>
+      <c r="P32" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2629,10 +3405,34 @@
         <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L33" s="22">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>75</v>
+      </c>
+      <c r="R33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2662,10 +3462,34 @@
         <v>7</v>
       </c>
       <c r="K34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L34" s="22">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" t="s">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2695,10 +3519,34 @@
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L35" s="22">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>75</v>
+      </c>
+      <c r="R35" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2728,10 +3576,34 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L36" s="22">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>75</v>
+      </c>
+      <c r="R36" t="s">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2761,10 +3633,34 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L37" s="22">
+        <v>2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>75</v>
+      </c>
+      <c r="R37" t="s">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2794,10 +3690,34 @@
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L38" s="22">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" t="s">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2827,10 +3747,34 @@
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="L39" s="22">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" t="s">
+        <v>75</v>
+      </c>
+      <c r="P39" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>75</v>
+      </c>
+      <c r="R39" t="s">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2860,10 +3804,34 @@
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L40" s="22">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+      <c r="P40" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>75</v>
+      </c>
+      <c r="R40" t="s">
+        <v>74</v>
+      </c>
+      <c r="S40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2893,10 +3861,34 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L41" s="22">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>75</v>
+      </c>
+      <c r="R41" t="s">
+        <v>75</v>
+      </c>
+      <c r="S41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2930,10 +3922,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L42" s="22">
+        <v>3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>75</v>
+      </c>
+      <c r="R42" t="s">
+        <v>74</v>
+      </c>
+      <c r="S42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2967,10 +3983,34 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L43" s="22">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>74</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>75</v>
+      </c>
+      <c r="R43" t="s">
+        <v>74</v>
+      </c>
+      <c r="S43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3004,10 +4044,34 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="K44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L44" s="22">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>75</v>
+      </c>
+      <c r="O44" t="s">
+        <v>74</v>
+      </c>
+      <c r="P44" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>75</v>
+      </c>
+      <c r="R44" t="s">
+        <v>74</v>
+      </c>
+      <c r="S44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3041,10 +4105,37 @@
         <v>2.8</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="L45" s="22">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>75</v>
+      </c>
+      <c r="O45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>75</v>
+      </c>
+      <c r="R45" t="s">
+        <v>74</v>
+      </c>
+      <c r="S45" t="s">
+        <v>74</v>
+      </c>
+      <c r="T45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3078,10 +4169,34 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L46" s="22">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>75</v>
+      </c>
+      <c r="R46" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3115,10 +4230,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L47" s="22">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>74</v>
+      </c>
+      <c r="R47" t="s">
+        <v>74</v>
+      </c>
+      <c r="S47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3152,10 +4291,34 @@
         <v>2.5</v>
       </c>
       <c r="K48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L48" s="22">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>75</v>
+      </c>
+      <c r="R48" t="s">
+        <v>74</v>
+      </c>
+      <c r="S48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3189,10 +4352,34 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="K49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L49" s="22">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>74</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>75</v>
+      </c>
+      <c r="R49" t="s">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3226,10 +4413,34 @@
         <v>3.9999999999999991</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L50" s="23">
+        <v>2</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3263,10 +4474,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="L51" s="23">
+        <v>2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>5</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3300,10 +4535,10 @@
         <v>3.3</v>
       </c>
       <c r="K52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3337,10 +4572,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3374,10 +4609,10 @@
         <v>2.6999999999999997</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3411,10 +4646,10 @@
         <v>4.3000000000000007</v>
       </c>
       <c r="K55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3448,10 +4683,10 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="K56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3485,10 +4720,10 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3522,10 +4757,10 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3559,10 +4794,10 @@
         <v>2.7</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3596,10 +4831,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3633,10 +4868,10 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3670,10 +4905,10 @@
         <v>2.5</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3707,10 +4942,10 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3744,7 +4979,7 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3781,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="K65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3818,7 +5053,7 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3855,7 +5090,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3892,7 +5127,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3929,7 +5164,7 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3966,7 +5201,7 @@
         <v>5.4999999999999991</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4003,7 +5238,7 @@
         <v>2.4</v>
       </c>
       <c r="K71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4040,7 +5275,7 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4077,7 +5312,7 @@
         <v>5.3999999999999986</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4114,7 +5349,7 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4151,7 +5386,7 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4188,7 +5423,7 @@
         <v>4.7000000000000011</v>
       </c>
       <c r="K76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4225,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4262,7 +5497,7 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4299,7 +5534,7 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4336,7 +5571,7 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4373,7 +5608,7 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4410,7 +5645,7 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="K82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4447,7 +5682,7 @@
         <v>2.8</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4484,7 +5719,7 @@
         <v>2.5</v>
       </c>
       <c r="K84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4521,7 +5756,7 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4558,7 +5793,7 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4595,7 +5830,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4632,7 +5867,7 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4669,7 +5904,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4706,7 +5941,7 @@
         <v>1.6</v>
       </c>
       <c r="K90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4743,7 +5978,7 @@
         <v>3.2</v>
       </c>
       <c r="K91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4780,7 +6015,7 @@
         <v>3.7</v>
       </c>
       <c r="K92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4817,7 +6052,7 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4854,7 +6089,7 @@
         <v>4</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4891,7 +6126,7 @@
         <v>3.2999999999999989</v>
       </c>
       <c r="K95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4928,7 +6163,7 @@
         <v>3.5</v>
       </c>
       <c r="K96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4965,7 +6200,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -5002,7 +6237,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -5039,7 +6274,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -5076,7 +6311,7 @@
         <v>5.4</v>
       </c>
       <c r="K100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -5113,7 +6348,7 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -5150,7 +6385,7 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="K102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -5187,7 +6422,7 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -5224,7 +6459,7 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -5261,7 +6496,7 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5298,7 +6533,7 @@
         <v>2.5</v>
       </c>
       <c r="K106" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5335,7 +6570,7 @@
         <v>6.1</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5372,7 +6607,7 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="K108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -5409,7 +6644,7 @@
         <v>1.5</v>
       </c>
       <c r="K109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -5446,7 +6681,7 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="K110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -5483,7 +6718,7 @@
         <v>3.2</v>
       </c>
       <c r="K111" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -5520,7 +6755,7 @@
         <v>3.6999999999999993</v>
       </c>
       <c r="K112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -5557,7 +6792,7 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K113" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -5594,7 +6829,7 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -5631,7 +6866,7 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="K115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -5668,7 +6903,7 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -5705,7 +6940,7 @@
         <v>3.2</v>
       </c>
       <c r="K117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -5742,7 +6977,7 @@
         <v>4.5</v>
       </c>
       <c r="K118" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -5779,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -5816,7 +7051,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K120" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -5853,7 +7088,7 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="K121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -5890,7 +7125,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K122" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -5927,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -5964,7 +7199,7 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="K124" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -6001,7 +7236,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -6038,7 +7273,7 @@
         <v>4.3</v>
       </c>
       <c r="K126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -6075,7 +7310,7 @@
         <v>5.1000000000000005</v>
       </c>
       <c r="K127" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -6112,7 +7347,7 @@
         <v>4.5</v>
       </c>
       <c r="K128" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -6149,7 +7384,7 @@
         <v>1.2999999999999998</v>
       </c>
       <c r="K129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -6186,7 +7421,7 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="K130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -6223,7 +7458,7 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="K131" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -6260,7 +7495,7 @@
         <v>2.5</v>
       </c>
       <c r="K132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -6297,7 +7532,7 @@
         <v>2.7</v>
       </c>
       <c r="K133" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -6334,7 +7569,7 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -6371,7 +7606,7 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K135" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -6408,7 +7643,7 @@
         <v>1.4</v>
       </c>
       <c r="K136" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -6445,7 +7680,7 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K137" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -6465,7 +7700,7 @@
         <v>39.28</v>
       </c>
       <c r="F138" s="10">
-        <f t="shared" ref="F138:F141" si="7">E138/10</f>
+        <f>E138/10</f>
         <v>3.9279999999999999</v>
       </c>
       <c r="G138" s="4">
@@ -6482,7 +7717,7 @@
         <v>2.9</v>
       </c>
       <c r="K138" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -6502,7 +7737,7 @@
         <v>32.46</v>
       </c>
       <c r="F139" s="10">
-        <f t="shared" si="7"/>
+        <f>E139/10</f>
         <v>3.246</v>
       </c>
       <c r="G139" s="4">
@@ -6519,7 +7754,7 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K139" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -6539,7 +7774,7 @@
         <v>39.520000000000003</v>
       </c>
       <c r="F140" s="10">
-        <f t="shared" si="7"/>
+        <f>E140/10</f>
         <v>3.9520000000000004</v>
       </c>
       <c r="G140" s="4">
@@ -6556,7 +7791,7 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K140" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -6576,7 +7811,7 @@
         <v>35.74</v>
       </c>
       <c r="F141" s="10">
-        <f t="shared" si="7"/>
+        <f>E141/10</f>
         <v>3.5740000000000003</v>
       </c>
       <c r="G141" s="4">
@@ -6589,11 +7824,11 @@
         <v>4</v>
       </c>
       <c r="J141" s="4">
-        <f t="shared" ref="J141:J172" si="8">G141-I141</f>
+        <f t="shared" ref="J141:J172" si="7">G141-I141</f>
         <v>3.2</v>
       </c>
       <c r="K141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -6622,11 +7857,11 @@
         <v>4</v>
       </c>
       <c r="J142" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K142" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -6655,11 +7890,11 @@
         <v>7.8</v>
       </c>
       <c r="J143" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.2</v>
       </c>
       <c r="K143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -6688,11 +7923,11 @@
         <v>3</v>
       </c>
       <c r="J144" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="K144" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -6721,11 +7956,11 @@
         <v>5.2</v>
       </c>
       <c r="J145" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
       <c r="K145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -6754,11 +7989,11 @@
         <v>5.4</v>
       </c>
       <c r="J146" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.1999999999999993</v>
       </c>
       <c r="K146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -6787,11 +8022,11 @@
         <v>4.2</v>
       </c>
       <c r="J147" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="K147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -6820,11 +8055,11 @@
         <v>6.6</v>
       </c>
       <c r="J148" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="K148" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -6853,11 +8088,11 @@
         <v>6.1</v>
       </c>
       <c r="J149" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="K149" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -6886,11 +8121,11 @@
         <v>4.8</v>
       </c>
       <c r="J150" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
       <c r="K150" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -6919,11 +8154,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J151" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.1000000000000005</v>
       </c>
       <c r="K151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -6952,11 +8187,11 @@
         <v>7</v>
       </c>
       <c r="J152" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K152" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -6985,11 +8220,11 @@
         <v>5.5</v>
       </c>
       <c r="J153" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="K153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -7018,11 +8253,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J154" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="K154" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7051,11 +8286,11 @@
         <v>3.4</v>
       </c>
       <c r="J155" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6</v>
       </c>
       <c r="K155" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7084,11 +8319,11 @@
         <v>6.2</v>
       </c>
       <c r="J156" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.8999999999999995</v>
       </c>
       <c r="K156" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -7117,11 +8352,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J157" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
       <c r="K157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -7150,11 +8385,11 @@
         <v>5</v>
       </c>
       <c r="J158" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.1999999999999993</v>
       </c>
       <c r="K158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -7183,11 +8418,11 @@
         <v>4.8</v>
       </c>
       <c r="J159" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K159" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -7216,11 +8451,11 @@
         <v>6.8</v>
       </c>
       <c r="J160" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4.3999999999999995</v>
       </c>
       <c r="K160" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -7249,11 +8484,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J161" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K161" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -7282,11 +8517,11 @@
         <v>4.8</v>
       </c>
       <c r="J162" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K162" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -7315,11 +8550,11 @@
         <v>5.7</v>
       </c>
       <c r="J163" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.4999999999999991</v>
       </c>
       <c r="K163" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -7348,11 +8583,11 @@
         <v>2.9</v>
       </c>
       <c r="J164" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="K164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -7381,11 +8616,11 @@
         <v>4.7</v>
       </c>
       <c r="J165" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
       <c r="K165" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -7414,11 +8649,11 @@
         <v>5.5</v>
       </c>
       <c r="J166" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.6999999999999993</v>
       </c>
       <c r="K166" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -7447,11 +8682,11 @@
         <v>3.4</v>
       </c>
       <c r="J167" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K167" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -7480,11 +8715,11 @@
         <v>10.9</v>
       </c>
       <c r="J168" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5.4</v>
       </c>
       <c r="K168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -7513,11 +8748,11 @@
         <v>6</v>
       </c>
       <c r="J169" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.8000000000000007</v>
       </c>
       <c r="K169" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -7546,11 +8781,11 @@
         <v>3.4</v>
       </c>
       <c r="J170" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="K170" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -7579,11 +8814,11 @@
         <v>3.9</v>
       </c>
       <c r="J171" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5000000000000004</v>
       </c>
       <c r="K171" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -7612,11 +8847,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J172" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.0999999999999996</v>
       </c>
       <c r="K172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -7645,11 +8880,11 @@
         <v>3.8</v>
       </c>
       <c r="J173" s="4">
-        <f t="shared" ref="J173:J230" si="9">G173-I173</f>
+        <f t="shared" ref="J173:J202" si="8">G173-I173</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="K173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -7678,11 +8913,11 @@
         <v>5.2</v>
       </c>
       <c r="J174" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.8999999999999995</v>
       </c>
       <c r="K174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7711,11 +8946,11 @@
         <v>4.2</v>
       </c>
       <c r="J175" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -7744,11 +8979,11 @@
         <v>3.6</v>
       </c>
       <c r="J176" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999996</v>
       </c>
       <c r="K176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7777,11 +9012,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J177" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="K177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -7810,11 +9045,11 @@
         <v>6.7</v>
       </c>
       <c r="J178" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.2</v>
       </c>
       <c r="K178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -7843,11 +9078,11 @@
         <v>5.5</v>
       </c>
       <c r="J179" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="K179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -7876,11 +9111,11 @@
         <v>7</v>
       </c>
       <c r="J180" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="K180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -7909,11 +9144,11 @@
         <v>6.5</v>
       </c>
       <c r="J181" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="K181" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -7942,11 +9177,11 @@
         <v>3.7</v>
       </c>
       <c r="J182" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.8999999999999995</v>
       </c>
       <c r="K182" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -7975,11 +9210,11 @@
         <v>3.3</v>
       </c>
       <c r="J183" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="K183" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -8008,11 +9243,11 @@
         <v>5</v>
       </c>
       <c r="J184" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="K184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -8041,11 +9276,11 @@
         <v>3.3</v>
       </c>
       <c r="J185" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K185" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -8074,11 +9309,11 @@
         <v>3.6</v>
       </c>
       <c r="J186" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
       <c r="K186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -8107,11 +9342,11 @@
         <v>2.5</v>
       </c>
       <c r="J187" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="K187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -8140,11 +9375,11 @@
         <v>3.7</v>
       </c>
       <c r="J188" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="K188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -8173,11 +9408,11 @@
         <v>4.7</v>
       </c>
       <c r="J189" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -8206,11 +9441,11 @@
         <v>3.5</v>
       </c>
       <c r="J190" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.3</v>
       </c>
       <c r="K190" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -8239,11 +9474,11 @@
         <v>4.3</v>
       </c>
       <c r="J191" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="K191" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -8272,11 +9507,11 @@
         <v>3.3</v>
       </c>
       <c r="J192" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -8305,11 +9540,11 @@
         <v>5.5</v>
       </c>
       <c r="J193" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K193" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -8338,11 +9573,11 @@
         <v>3</v>
       </c>
       <c r="J194" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="K194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -8371,11 +9606,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J195" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="K195" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -8404,11 +9639,11 @@
         <v>5.2</v>
       </c>
       <c r="J196" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="K196" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8437,11 +9672,11 @@
         <v>5</v>
       </c>
       <c r="J197" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K197" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -8470,11 +9705,11 @@
         <v>6.6</v>
       </c>
       <c r="J198" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.2000000000000011</v>
       </c>
       <c r="K198" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -8503,11 +9738,11 @@
         <v>6.2</v>
       </c>
       <c r="J199" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="K199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -8536,11 +9771,11 @@
         <v>4.2</v>
       </c>
       <c r="J200" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="K200" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -8569,11 +9804,11 @@
         <v>2.8</v>
       </c>
       <c r="J201" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="K201" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -8602,11 +9837,11 @@
         <v>4.5</v>
       </c>
       <c r="J202" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K202" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -8639,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="K203" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -8668,11 +9903,11 @@
         <v>7.3</v>
       </c>
       <c r="J204" s="4">
-        <f t="shared" ref="J204:J267" si="10">G204-I204</f>
+        <f t="shared" ref="J204:J267" si="9">G204-I204</f>
         <v>2.5000000000000009</v>
       </c>
       <c r="K204" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -8701,11 +9936,11 @@
         <v>5.8</v>
       </c>
       <c r="J205" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
       <c r="K205" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -8734,11 +9969,11 @@
         <v>3.1</v>
       </c>
       <c r="J206" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.4999999999999996</v>
       </c>
       <c r="K206" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -8767,11 +10002,11 @@
         <v>6.3</v>
       </c>
       <c r="J207" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="K207" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -8800,11 +10035,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J208" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="K208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -8833,11 +10068,11 @@
         <v>2.6</v>
       </c>
       <c r="J209" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.4</v>
       </c>
       <c r="K209" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -8866,11 +10101,11 @@
         <v>7.1</v>
       </c>
       <c r="J210" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.3000000000000007</v>
       </c>
       <c r="K210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -8899,11 +10134,11 @@
         <v>4.7</v>
       </c>
       <c r="J211" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -8932,11 +10167,11 @@
         <v>3.8</v>
       </c>
       <c r="J212" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8</v>
       </c>
       <c r="K212" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -8965,11 +10200,11 @@
         <v>1.8</v>
       </c>
       <c r="J213" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="K213" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -8998,11 +10233,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J214" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="K214" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -9031,11 +10266,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J215" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.3000000000000007</v>
       </c>
       <c r="K215" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -9064,11 +10299,11 @@
         <v>3.8</v>
       </c>
       <c r="J216" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="K216" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -9097,11 +10332,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="J217" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.2999999999999989</v>
       </c>
       <c r="K217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -9130,11 +10365,11 @@
         <v>3.7</v>
       </c>
       <c r="J218" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="K218" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -9163,11 +10398,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J219" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="K219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -9196,11 +10431,11 @@
         <v>4.2</v>
       </c>
       <c r="J220" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8999999999999995</v>
       </c>
       <c r="K220" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -9229,11 +10464,11 @@
         <v>9.9</v>
       </c>
       <c r="J221" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="K221" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -9262,11 +10497,11 @@
         <v>5.7</v>
       </c>
       <c r="J222" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.8999999999999995</v>
       </c>
       <c r="K222" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -9295,11 +10530,11 @@
         <v>4</v>
       </c>
       <c r="J223" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="K223" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -9328,11 +10563,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J224" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="K224" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -9361,11 +10596,11 @@
         <v>5</v>
       </c>
       <c r="J225" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K225" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -9394,11 +10629,11 @@
         <v>4.8</v>
       </c>
       <c r="J226" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.5000000000000009</v>
       </c>
       <c r="K226" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -9427,11 +10662,11 @@
         <v>3.6</v>
       </c>
       <c r="J227" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
       <c r="K227" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -9460,11 +10695,11 @@
         <v>5</v>
       </c>
       <c r="J228" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="K228" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -9493,11 +10728,11 @@
         <v>3.9</v>
       </c>
       <c r="J229" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.6999999999999997</v>
       </c>
       <c r="K229" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -9526,11 +10761,11 @@
         <v>5.8</v>
       </c>
       <c r="J230" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.8999999999999995</v>
       </c>
       <c r="K230" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -9559,11 +10794,11 @@
         <v>8.6</v>
       </c>
       <c r="J231" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="K231" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -9592,11 +10827,11 @@
         <v>8</v>
       </c>
       <c r="J232" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="K232" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -9625,11 +10860,11 @@
         <v>3.8</v>
       </c>
       <c r="J233" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K233" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -9658,11 +10893,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J234" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="K234" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -9691,11 +10926,11 @@
         <v>6.7</v>
       </c>
       <c r="J235" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
       <c r="K235" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -9724,11 +10959,11 @@
         <v>7.5</v>
       </c>
       <c r="J236" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.3000000000000007</v>
       </c>
       <c r="K236" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -9757,11 +10992,11 @@
         <v>3.6</v>
       </c>
       <c r="J237" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K237" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -9790,11 +11025,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J238" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="K238" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -9823,11 +11058,11 @@
         <v>2.6</v>
       </c>
       <c r="J239" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K239" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -9856,11 +11091,11 @@
         <v>5.6</v>
       </c>
       <c r="J240" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.3000000000000007</v>
       </c>
       <c r="K240" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -9889,11 +11124,11 @@
         <v>4.7</v>
       </c>
       <c r="J241" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3999999999999995</v>
       </c>
       <c r="K241" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -9922,7 +11157,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J242" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -9952,7 +11187,7 @@
         <v>3.8</v>
       </c>
       <c r="J243" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -9982,7 +11217,7 @@
         <v>2.9</v>
       </c>
       <c r="J244" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.9</v>
       </c>
     </row>
@@ -10012,7 +11247,7 @@
         <v>4.3</v>
       </c>
       <c r="J245" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -10042,7 +11277,7 @@
         <v>6.3</v>
       </c>
       <c r="J246" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
     </row>
@@ -10072,7 +11307,7 @@
         <v>5.4</v>
       </c>
       <c r="J247" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -10102,7 +11337,7 @@
         <v>6.2</v>
       </c>
       <c r="J248" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9999999999999991</v>
       </c>
     </row>
@@ -10132,7 +11367,7 @@
         <v>7.1</v>
       </c>
       <c r="J249" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -10162,7 +11397,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J250" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
@@ -10192,7 +11427,7 @@
         <v>6.6</v>
       </c>
       <c r="J251" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -10222,7 +11457,7 @@
         <v>4.8</v>
       </c>
       <c r="J252" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1000000000000005</v>
       </c>
     </row>
@@ -10252,7 +11487,7 @@
         <v>6.7</v>
       </c>
       <c r="J253" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.1000000000000005</v>
       </c>
     </row>
@@ -10282,7 +11517,7 @@
         <v>5.6</v>
       </c>
       <c r="J254" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.3000000000000007</v>
       </c>
     </row>
@@ -10312,7 +11547,7 @@
         <v>3.9</v>
       </c>
       <c r="J255" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.1</v>
       </c>
     </row>
@@ -10342,7 +11577,7 @@
         <v>4</v>
       </c>
       <c r="J256" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.7</v>
       </c>
     </row>
@@ -10372,7 +11607,7 @@
         <v>2.1</v>
       </c>
       <c r="J257" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.1999999999999997</v>
       </c>
     </row>
@@ -10402,7 +11637,7 @@
         <v>4.8</v>
       </c>
       <c r="J258" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -10432,7 +11667,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J259" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.8999999999999995</v>
       </c>
     </row>
@@ -10462,7 +11697,7 @@
         <v>6.9</v>
       </c>
       <c r="J260" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -10492,7 +11727,7 @@
         <v>6</v>
       </c>
       <c r="J261" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -10522,7 +11757,7 @@
         <v>4.5</v>
       </c>
       <c r="J262" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.9000000000000004</v>
       </c>
     </row>
@@ -10552,7 +11787,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J263" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -10582,7 +11817,7 @@
         <v>4.8</v>
       </c>
       <c r="J264" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -10612,7 +11847,7 @@
         <v>4.7</v>
       </c>
       <c r="J265" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -10642,7 +11877,7 @@
         <v>3.5</v>
       </c>
       <c r="J266" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5999999999999996</v>
       </c>
     </row>
@@ -10672,7 +11907,7 @@
         <v>3.1</v>
       </c>
       <c r="J267" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6999999999999997</v>
       </c>
     </row>
@@ -10702,7 +11937,7 @@
         <v>4.8</v>
       </c>
       <c r="J268" s="4">
-        <f t="shared" ref="J268:J362" si="11">G268-I268</f>
+        <f t="shared" ref="J268:J362" si="10">G268-I268</f>
         <v>2.8</v>
       </c>
     </row>
@@ -10732,7 +11967,7 @@
         <v>4.5</v>
       </c>
       <c r="J269" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -10762,7 +11997,7 @@
         <v>7.2</v>
       </c>
       <c r="J270" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
     </row>
@@ -10792,7 +12027,7 @@
         <v>2.1</v>
       </c>
       <c r="J271" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -10822,7 +12057,7 @@
         <v>8</v>
       </c>
       <c r="J272" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -10852,7 +12087,7 @@
         <v>5.4</v>
       </c>
       <c r="J273" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -10882,7 +12117,7 @@
         <v>4.7</v>
       </c>
       <c r="J274" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10912,7 +12147,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J275" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
     </row>
@@ -10942,7 +12177,7 @@
         <v>4</v>
       </c>
       <c r="J276" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
     </row>
@@ -10972,7 +12207,7 @@
         <v>4.2</v>
       </c>
       <c r="J277" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -11002,7 +12237,7 @@
         <v>7.1</v>
       </c>
       <c r="J278" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.8000000000000007</v>
       </c>
     </row>
@@ -11032,7 +12267,7 @@
         <v>6.2</v>
       </c>
       <c r="J279" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -11062,7 +12297,7 @@
         <v>3.2</v>
       </c>
       <c r="J280" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -11092,7 +12327,7 @@
         <v>5.4</v>
       </c>
       <c r="J281" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -11122,7 +12357,7 @@
         <v>4.7</v>
       </c>
       <c r="J282" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -11152,7 +12387,7 @@
         <v>4.2</v>
       </c>
       <c r="J283" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.8999999999999995</v>
       </c>
     </row>
@@ -11182,7 +12417,7 @@
         <v>4.8</v>
       </c>
       <c r="J284" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
     </row>
@@ -11212,7 +12447,7 @@
         <v>4.3</v>
       </c>
       <c r="J285" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
     </row>
@@ -11242,7 +12477,7 @@
         <v>3.6</v>
       </c>
       <c r="J286" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -11272,7 +12507,7 @@
         <v>5</v>
       </c>
       <c r="J287" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -11302,7 +12537,7 @@
         <v>5.7</v>
       </c>
       <c r="J288" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -11332,7 +12567,7 @@
         <v>5.3</v>
       </c>
       <c r="J289" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.3</v>
       </c>
     </row>
@@ -11362,7 +12597,7 @@
         <v>3.9</v>
       </c>
       <c r="J290" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
     </row>
@@ -11392,7 +12627,7 @@
         <v>4.2</v>
       </c>
       <c r="J291" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -11419,7 +12654,7 @@
         <v>5.3</v>
       </c>
       <c r="J292" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
@@ -11446,7 +12681,7 @@
         <v>2.9</v>
       </c>
       <c r="J293" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3000000000000003</v>
       </c>
     </row>
@@ -11473,7 +12708,7 @@
         <v>5</v>
       </c>
       <c r="J294" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.1999999999999993</v>
       </c>
     </row>
@@ -11500,7 +12735,7 @@
         <v>4.5</v>
       </c>
       <c r="J295" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -11527,7 +12762,7 @@
         <v>3.8</v>
       </c>
       <c r="J296" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -11554,7 +12789,7 @@
         <v>3.8</v>
       </c>
       <c r="J297" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
     </row>
@@ -11581,7 +12816,7 @@
         <v>5.5</v>
       </c>
       <c r="J298" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -11608,7 +12843,7 @@
         <v>4.8</v>
       </c>
       <c r="J299" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -11635,7 +12870,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J300" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -11662,7 +12897,7 @@
         <v>3.4</v>
       </c>
       <c r="J301" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6999999999999997</v>
       </c>
     </row>
@@ -11689,7 +12924,7 @@
         <v>2.5</v>
       </c>
       <c r="J302" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -11716,7 +12951,7 @@
         <v>5.2</v>
       </c>
       <c r="J303" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.8999999999999995</v>
       </c>
     </row>
@@ -11743,7 +12978,7 @@
         <v>3.2</v>
       </c>
       <c r="J304" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
@@ -11770,7 +13005,7 @@
         <v>3.2</v>
       </c>
       <c r="J305" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -11797,7 +13032,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J306" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.3000000000000007</v>
       </c>
     </row>
@@ -11824,7 +13059,7 @@
         <v>3.6</v>
       </c>
       <c r="J307" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.9</v>
       </c>
     </row>
@@ -11851,7 +13086,7 @@
         <v>1.9</v>
       </c>
       <c r="J308" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -11878,7 +13113,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J309" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
@@ -11905,7 +13140,7 @@
         <v>4.8</v>
       </c>
       <c r="J310" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6000000000000005</v>
       </c>
     </row>
@@ -11932,7 +13167,7 @@
         <v>3.2</v>
       </c>
       <c r="J311" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -11959,7 +13194,7 @@
         <v>6.3</v>
       </c>
       <c r="J312" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -11986,7 +13221,7 @@
         <v>5</v>
       </c>
       <c r="J313" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.3000000000000007</v>
       </c>
     </row>
@@ -12013,7 +13248,7 @@
         <v>3.7</v>
       </c>
       <c r="J314" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -12040,7 +13275,7 @@
         <v>6.1</v>
       </c>
       <c r="J315" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -12067,7 +13302,7 @@
         <v>4</v>
       </c>
       <c r="J316" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12094,7 +13329,7 @@
         <v>2.8</v>
       </c>
       <c r="J317" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
@@ -12121,7 +13356,7 @@
         <v>5.3</v>
       </c>
       <c r="J318" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6000000000000005</v>
       </c>
     </row>
@@ -12148,7 +13383,7 @@
         <v>6.8</v>
       </c>
       <c r="J319" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.1000000000000005</v>
       </c>
     </row>
@@ -12171,10 +13406,10 @@
       <c r="G320" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I320" s="20" t="s">
+      <c r="I320" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J320" s="20" t="s">
+      <c r="J320" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12201,7 +13436,7 @@
         <v>7.7</v>
       </c>
       <c r="J321" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.6000000000000005</v>
       </c>
     </row>
@@ -12228,7 +13463,7 @@
         <v>4.2</v>
       </c>
       <c r="J322" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.8999999999999995</v>
       </c>
     </row>
@@ -12255,7 +13490,7 @@
         <v>9</v>
       </c>
       <c r="J323" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -12282,7 +13517,7 @@
         <v>4.2</v>
       </c>
       <c r="J324" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12309,7 +13544,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="J325" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.6999999999999993</v>
       </c>
     </row>
@@ -12336,7 +13571,7 @@
         <v>6</v>
       </c>
       <c r="J326" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.3000000000000007</v>
       </c>
     </row>
@@ -12363,7 +13598,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J327" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -12390,7 +13625,7 @@
         <v>7.4</v>
       </c>
       <c r="J328" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -12417,7 +13652,7 @@
         <v>3.6</v>
       </c>
       <c r="J329" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6999999999999997</v>
       </c>
     </row>
@@ -12444,7 +13679,7 @@
         <v>7.2</v>
       </c>
       <c r="J330" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>5.2</v>
       </c>
     </row>
@@ -12471,7 +13706,7 @@
         <v>3.4</v>
       </c>
       <c r="J331" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -12498,7 +13733,7 @@
         <v>4</v>
       </c>
       <c r="J332" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.0999999999999996</v>
       </c>
     </row>
@@ -12525,7 +13760,7 @@
         <v>3.5</v>
       </c>
       <c r="J333" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12552,7 +13787,7 @@
         <v>3.2</v>
       </c>
       <c r="J334" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -12579,7 +13814,7 @@
         <v>5.8</v>
       </c>
       <c r="J335" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
     </row>
@@ -12606,7 +13841,7 @@
         <v>6.5</v>
       </c>
       <c r="J336" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -12633,7 +13868,7 @@
         <v>5.6</v>
       </c>
       <c r="J337" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -12660,7 +13895,7 @@
         <v>2.4</v>
       </c>
       <c r="J338" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.4</v>
       </c>
     </row>
@@ -12687,7 +13922,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J339" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -12714,7 +13949,7 @@
         <v>4.8</v>
       </c>
       <c r="J340" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.4000000000000004</v>
       </c>
     </row>
@@ -12741,7 +13976,7 @@
         <v>8.9</v>
       </c>
       <c r="J341" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.5999999999999996</v>
       </c>
     </row>
@@ -12768,7 +14003,7 @@
         <v>5</v>
       </c>
       <c r="J342" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -12795,7 +14030,7 @@
         <v>4.5</v>
       </c>
       <c r="J343" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -12822,7 +14057,7 @@
         <v>3.9</v>
       </c>
       <c r="J344" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.8000000000000003</v>
       </c>
     </row>
@@ -12849,7 +14084,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J345" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
     </row>
@@ -12876,7 +14111,7 @@
         <v>3</v>
       </c>
       <c r="J346" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
@@ -12903,7 +14138,7 @@
         <v>5.9</v>
       </c>
       <c r="J347" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.0999999999999996</v>
       </c>
     </row>
@@ -12930,7 +14165,7 @@
         <v>8.4</v>
       </c>
       <c r="J348" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.1999999999999993</v>
       </c>
     </row>
@@ -12957,7 +14192,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J349" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -12984,7 +14219,7 @@
         <v>7.4</v>
       </c>
       <c r="J350" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -13011,7 +14246,7 @@
         <v>3.5</v>
       </c>
       <c r="J351" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -13038,7 +14273,7 @@
         <v>3.8</v>
       </c>
       <c r="J352" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -13065,7 +14300,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J353" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -13092,7 +14327,7 @@
         <v>5.6</v>
       </c>
       <c r="J354" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.6000000000000005</v>
       </c>
     </row>
@@ -13119,7 +14354,7 @@
         <v>9.6</v>
       </c>
       <c r="J355" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -13146,7 +14381,7 @@
         <v>5.6</v>
       </c>
       <c r="J356" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -13173,7 +14408,7 @@
         <v>6.8</v>
       </c>
       <c r="J357" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -13200,7 +14435,7 @@
         <v>6.3</v>
       </c>
       <c r="J358" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.3</v>
       </c>
     </row>
@@ -13227,7 +14462,7 @@
         <v>1.7</v>
       </c>
       <c r="J359" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.2</v>
       </c>
     </row>
@@ -13254,7 +14489,7 @@
         <v>3.8</v>
       </c>
       <c r="J360" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
     </row>
@@ -13281,7 +14516,7 @@
         <v>3.6</v>
       </c>
       <c r="J361" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
     </row>
@@ -13308,7 +14543,7 @@
         <v>4.7</v>
       </c>
       <c r="J362" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>3.2</v>
       </c>
     </row>
@@ -13355,13 +14590,13 @@
       <c r="F364" s="4">
         <v>3.6</v>
       </c>
-      <c r="G364" s="20" t="s">
+      <c r="G364" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I364" s="4">
         <v>7.9</v>
       </c>
-      <c r="J364" s="20" t="s">
+      <c r="J364" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13381,13 +14616,13 @@
       <c r="F365" s="4">
         <v>3.5</v>
       </c>
-      <c r="G365" s="20" t="s">
+      <c r="G365" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I365" s="4">
         <v>3</v>
       </c>
-      <c r="J365" s="20" t="s">
+      <c r="J365" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13407,13 +14642,13 @@
       <c r="F366" s="4">
         <v>3.2</v>
       </c>
-      <c r="G366" s="20" t="s">
+      <c r="G366" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I366" s="4">
         <v>6.2</v>
       </c>
-      <c r="J366" s="20" t="s">
+      <c r="J366" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13433,13 +14668,13 @@
       <c r="F367" s="4">
         <v>3.8</v>
       </c>
-      <c r="G367" s="20" t="s">
+      <c r="G367" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I367" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J367" s="20" t="s">
+      <c r="J367" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13459,13 +14694,13 @@
       <c r="F368" s="4">
         <v>3.8</v>
       </c>
-      <c r="G368" s="20" t="s">
+      <c r="G368" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I368" s="4">
         <v>4.2</v>
       </c>
-      <c r="J368" s="20" t="s">
+      <c r="J368" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13485,13 +14720,13 @@
       <c r="F369" s="4">
         <v>3</v>
       </c>
-      <c r="G369" s="20" t="s">
+      <c r="G369" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I369" s="4">
         <v>3.7</v>
       </c>
-      <c r="J369" s="20" t="s">
+      <c r="J369" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13511,13 +14746,13 @@
       <c r="F370" s="4">
         <v>4.8</v>
       </c>
-      <c r="G370" s="20" t="s">
+      <c r="G370" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I370" s="4">
         <v>5.4</v>
       </c>
-      <c r="J370" s="20" t="s">
+      <c r="J370" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13537,13 +14772,13 @@
       <c r="F371" s="4">
         <v>3.1</v>
       </c>
-      <c r="G371" s="20" t="s">
+      <c r="G371" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I371" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J371" s="20" t="s">
+      <c r="J371" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13563,13 +14798,13 @@
       <c r="F372" s="4">
         <v>3.7</v>
       </c>
-      <c r="G372" s="20" t="s">
+      <c r="G372" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I372" s="4">
         <v>4.3</v>
       </c>
-      <c r="J372" s="20" t="s">
+      <c r="J372" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13589,13 +14824,13 @@
       <c r="F373" s="4">
         <v>4.2</v>
       </c>
-      <c r="G373" s="20" t="s">
+      <c r="G373" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I373" s="4">
         <v>5.4</v>
       </c>
-      <c r="J373" s="20" t="s">
+      <c r="J373" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13615,13 +14850,13 @@
       <c r="F374" s="4">
         <v>3.8</v>
       </c>
-      <c r="G374" s="20" t="s">
+      <c r="G374" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I374" s="4">
         <v>3.8</v>
       </c>
-      <c r="J374" s="20" t="s">
+      <c r="J374" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13641,13 +14876,13 @@
       <c r="F375" s="4">
         <v>3.7</v>
       </c>
-      <c r="G375" s="20" t="s">
+      <c r="G375" s="15" t="s">
         <v>31</v>
       </c>
       <c r="I375" s="4">
         <v>3.8</v>
       </c>
-      <c r="J375" s="20" t="s">
+      <c r="J375" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13674,7 +14909,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J376" s="4">
-        <f t="shared" ref="J376:J387" si="12">G376-I376</f>
+        <f t="shared" ref="J376:J387" si="11">G376-I376</f>
         <v>2.2000000000000011</v>
       </c>
     </row>
@@ -13701,7 +14936,7 @@
         <v>3.2</v>
       </c>
       <c r="J377" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -13724,10 +14959,10 @@
       <c r="G378" s="4">
         <v>16.3</v>
       </c>
-      <c r="I378" s="20" t="s">
+      <c r="I378" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J378" s="20" t="s">
+      <c r="J378" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13754,7 +14989,7 @@
         <v>4</v>
       </c>
       <c r="J379" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -13781,7 +15016,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="J380" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -13808,7 +15043,7 @@
         <v>2.8</v>
       </c>
       <c r="J381" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.4000000000000004</v>
       </c>
     </row>
@@ -13835,7 +15070,7 @@
         <v>7</v>
       </c>
       <c r="J382" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.3000000000000007</v>
       </c>
     </row>
@@ -13862,7 +15097,7 @@
         <v>5.9</v>
       </c>
       <c r="J383" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.2999999999999989</v>
       </c>
     </row>
@@ -13889,7 +15124,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="J384" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.2999999999999989</v>
       </c>
     </row>
@@ -13916,7 +15151,7 @@
         <v>7.4</v>
       </c>
       <c r="J385" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.2999999999999989</v>
       </c>
     </row>
@@ -13943,7 +15178,7 @@
         <v>5.2</v>
       </c>
       <c r="J386" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
@@ -13970,7 +15205,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J387" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -16470,19 +17705,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="49" customHeight="1">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="31" customHeight="1">
       <c r="A3" s="11" t="s">

--- a/data/Sample-Data.xlsx
+++ b/data/Sample-Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="0" windowWidth="9400" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="18280" yWindow="0" windowWidth="12320" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hist Samples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="104">
   <si>
     <t>Sample #</t>
   </si>
@@ -202,12 +202,6 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>DOMINANT STAGE</t>
-  </si>
-  <si>
-    <t>SECONDARY STAGE</t>
-  </si>
-  <si>
     <t>spermatocytes</t>
   </si>
   <si>
@@ -257,6 +251,90 @@
   </si>
   <si>
     <t>Good mixed stage/sex sample</t>
+  </si>
+  <si>
+    <t>Looks like significant atresia</t>
+  </si>
+  <si>
+    <t>partial spawn?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Regressing, or just poorly fixed?</t>
+  </si>
+  <si>
+    <t>Good female stage 2 / male mostly spawned</t>
+  </si>
+  <si>
+    <t>Interesting hermaphrodite section w/ stage 2 &amp; 3 male gametes</t>
+  </si>
+  <si>
+    <t>VERY RIPE FEMALE</t>
+  </si>
+  <si>
+    <t>SIGNIFICANT ATRESIA</t>
+  </si>
+  <si>
+    <t>FEMALE STAGE</t>
+  </si>
+  <si>
+    <t>MALE STAGE</t>
+  </si>
+  <si>
+    <t>Good example of recently spawned</t>
+  </si>
+  <si>
+    <t>Maybe partially spawned male gametes</t>
+  </si>
+  <si>
+    <t>Or male = 3???, possible self fertilization ?</t>
+  </si>
+  <si>
+    <t>Looks like atresia</t>
+  </si>
+  <si>
+    <t>Very interesteing hermaphrodite slide</t>
+  </si>
+  <si>
+    <t>Interesting male section</t>
+  </si>
+  <si>
+    <t>Male gametes may be partially spawned</t>
+  </si>
+  <si>
+    <t>Super ripe, hard to tell distinct ova / regresion</t>
+  </si>
+  <si>
+    <t>Many remnant spermatids</t>
+  </si>
+  <si>
+    <t>Possibly large area of phagocytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super ripe female gonad </t>
+  </si>
+  <si>
+    <t>Really nice stage 2 ova</t>
+  </si>
+  <si>
+    <t>Very good ripe male</t>
+  </si>
+  <si>
+    <t>Or stage 2 male gameges</t>
+  </si>
+  <si>
+    <t>Spawned out</t>
+  </si>
+  <si>
+    <t>Complicated male gametes, multiple stages</t>
+  </si>
+  <si>
+    <t>Looks like lots of atresia</t>
+  </si>
+  <si>
+    <t>Looks like male gametes spawned out</t>
   </si>
 </sst>
 </file>
@@ -340,9 +418,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="354">
+  <cellStyleXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,16 +875,16 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="354">
+  <cellStyles count="410">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -928,6 +1062,34 @@
     <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1104,6 +1266,34 @@
     <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1433,14 +1623,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T387"/>
+  <dimension ref="A1:U387"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane xSplit="1520" ySplit="1020" topLeftCell="A27" activePane="bottomRight"/>
-      <selection activeCell="X34" sqref="X34"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1:L1048576"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
-      <selection pane="bottomRight" activeCell="L48" sqref="L48"/>
+      <pane ySplit="1020" topLeftCell="A212" activePane="bottomLeft"/>
+      <selection activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1456,17 +1644,17 @@
     <col min="9" max="9" width="12.6640625" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="22" customWidth="1"/>
-    <col min="13" max="13" width="9.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
-    <col min="19" max="19" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="21" customWidth="1"/>
+    <col min="13" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="16" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:21" s="16" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1500,32 +1688,35 @@
       <c r="K1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1559,34 +1750,34 @@
         <v>4.7999999999999989</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="22">
+        <v>64</v>
+      </c>
+      <c r="L2" s="21">
         <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
-        <v>74</v>
-      </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1620,34 +1811,34 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="22">
+        <v>64</v>
+      </c>
+      <c r="L3" s="21">
         <v>3</v>
       </c>
       <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1681,34 +1872,34 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="22">
+        <v>64</v>
+      </c>
+      <c r="L4" s="21">
         <v>2</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1742,34 +1933,34 @@
         <v>6.8999999999999986</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="22">
+        <v>65</v>
+      </c>
+      <c r="L5" s="21">
+        <v>5</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1803,34 +1994,34 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="22">
+        <v>64</v>
+      </c>
+      <c r="L6" s="21">
         <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1864,34 +2055,34 @@
         <v>2.7</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="22">
+        <v>69</v>
+      </c>
+      <c r="L7" s="21">
+        <v>2</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1925,34 +2116,34 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="22">
+        <v>64</v>
+      </c>
+      <c r="L8" s="21">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>74</v>
+      <c r="M8" t="s">
+        <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1986,34 +2177,34 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="22">
+        <v>67</v>
+      </c>
+      <c r="L9" s="21">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
+      <c r="M9">
+        <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2047,34 +2238,34 @@
         <v>4.7</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="22">
+        <v>64</v>
+      </c>
+      <c r="L10" s="21">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
+      <c r="M10" t="s">
+        <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2108,34 +2299,34 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="22">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="T11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2169,34 +2360,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="22">
+        <v>64</v>
+      </c>
+      <c r="L12" s="21">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>74</v>
+      <c r="M12" t="s">
+        <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2230,34 +2421,34 @@
         <v>1.9</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="22">
-        <v>2</v>
-      </c>
-      <c r="M13">
+        <v>64</v>
+      </c>
+      <c r="L13" s="21">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
-        <v>75</v>
+      <c r="M13" t="s">
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2291,34 +2482,34 @@
         <v>2.7</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="22">
+        <v>64</v>
+      </c>
+      <c r="L14" s="21">
         <v>3</v>
       </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>74</v>
+      <c r="M14" t="s">
+        <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2352,34 +2543,34 @@
         <v>1.6</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="22">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="M15">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2413,37 +2604,37 @@
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="22">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="L16" s="21">
+        <v>5</v>
       </c>
       <c r="M16">
         <v>3</v>
       </c>
-      <c r="N16" t="s">
-        <v>75</v>
-      </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" t="s">
         <v>74</v>
       </c>
-      <c r="R16" t="s">
-        <v>74</v>
-      </c>
-      <c r="S16" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2477,34 +2668,37 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2538,34 +2732,34 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="K18" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="22">
+        <v>67</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>5</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2599,34 +2793,34 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="22">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="L19" s="21">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2660,34 +2854,34 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="22">
+        <v>65</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>75</v>
-      </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2721,34 +2915,34 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
-      </c>
-      <c r="L21" s="22">
+        <v>64</v>
+      </c>
+      <c r="L21" s="21">
         <v>2</v>
       </c>
       <c r="M21">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
-        <v>74</v>
-      </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>73</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2778,34 +2972,34 @@
         <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="22">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="L22" s="21">
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="S22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>73</v>
+      </c>
+      <c r="T22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2835,34 +3029,34 @@
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="22">
+        <v>66</v>
+      </c>
+      <c r="L23" s="21">
         <v>2</v>
       </c>
       <c r="M23">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
-        <v>74</v>
-      </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>73</v>
+      </c>
+      <c r="T23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2892,34 +3086,34 @@
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" s="22">
+        <v>64</v>
+      </c>
+      <c r="L24" s="21">
         <v>2</v>
       </c>
-      <c r="M24">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>74</v>
+      <c r="M24" t="s">
+        <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2949,34 +3143,34 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="22">
+        <v>64</v>
+      </c>
+      <c r="L25" s="21">
         <v>2</v>
       </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>74</v>
+      <c r="M25" t="s">
+        <v>31</v>
       </c>
       <c r="O25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3006,34 +3200,37 @@
         <v>5</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" s="22">
+        <v>64</v>
+      </c>
+      <c r="L26" s="21">
         <v>1</v>
       </c>
-      <c r="M26">
-        <v>5</v>
+      <c r="M26" t="s">
+        <v>31</v>
       </c>
       <c r="N26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3063,34 +3260,37 @@
         <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="22">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="L27" s="21">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
       </c>
       <c r="N27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3120,34 +3320,34 @@
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="22">
+        <v>69</v>
+      </c>
+      <c r="L28" s="21">
         <v>3</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>74</v>
+      <c r="M28" t="s">
+        <v>31</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3177,34 +3377,34 @@
         <v>4</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="22">
+        <v>69</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" t="s">
-        <v>75</v>
-      </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3234,34 +3434,37 @@
         <v>5</v>
       </c>
       <c r="K30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="22">
+        <v>69</v>
+      </c>
+      <c r="L30" s="21">
+        <v>5</v>
+      </c>
+      <c r="M30">
         <v>2</v>
       </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
       <c r="N30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>73</v>
+      </c>
+      <c r="T30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3291,34 +3494,34 @@
         <v>5</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="22">
+        <v>64</v>
+      </c>
+      <c r="L31" s="21">
         <v>3</v>
       </c>
       <c r="M31" t="s">
         <v>31</v>
       </c>
-      <c r="N31" t="s">
-        <v>74</v>
-      </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3348,34 +3551,34 @@
         <v>5</v>
       </c>
       <c r="K32" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" s="22">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="L32" s="21">
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="O32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="T32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3405,34 +3608,37 @@
         <v>5</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="22">
+        <v>64</v>
+      </c>
+      <c r="L33" s="21">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>5</v>
+      <c r="M33" t="s">
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3462,34 +3668,37 @@
         <v>7</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="22">
+        <v>64</v>
+      </c>
+      <c r="L34" s="21">
         <v>2</v>
       </c>
-      <c r="M34">
-        <v>5</v>
+      <c r="M34" t="s">
+        <v>31</v>
       </c>
       <c r="N34" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3519,34 +3728,34 @@
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="22">
+        <v>64</v>
+      </c>
+      <c r="L35" s="21">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>74</v>
+      <c r="M35" t="s">
+        <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3576,34 +3785,40 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
-      </c>
-      <c r="L36" s="22">
+        <v>66</v>
+      </c>
+      <c r="L36" s="21">
         <v>2</v>
       </c>
       <c r="M36">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="T36" t="s">
+        <v>73</v>
+      </c>
+      <c r="U36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3633,34 +3848,34 @@
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L37" s="22">
+        <v>64</v>
+      </c>
+      <c r="L37" s="21">
         <v>2</v>
       </c>
       <c r="M37" t="s">
         <v>31</v>
       </c>
-      <c r="N37" t="s">
-        <v>74</v>
-      </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3690,34 +3905,34 @@
         <v>4</v>
       </c>
       <c r="K38" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="22">
+        <v>69</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1</v>
+      </c>
+      <c r="M38">
         <v>2</v>
       </c>
-      <c r="M38">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s">
-        <v>75</v>
-      </c>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3747,34 +3962,37 @@
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="22">
+        <v>68</v>
+      </c>
+      <c r="L39" s="21">
+        <v>1</v>
+      </c>
+      <c r="M39">
         <v>2</v>
       </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39" t="s">
-        <v>75</v>
-      </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T39" t="s">
+        <v>73</v>
+      </c>
+      <c r="U39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3804,34 +4022,37 @@
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L40" s="22">
-        <v>2</v>
-      </c>
-      <c r="M40">
-        <v>5</v>
+        <v>64</v>
+      </c>
+      <c r="L40" s="21">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3861,34 +4082,37 @@
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
-      </c>
-      <c r="L41" s="22">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="L41" s="21">
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>73</v>
+      </c>
+      <c r="T41" t="s">
+        <v>73</v>
+      </c>
+      <c r="U41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3922,34 +4146,34 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L42" s="22">
+        <v>64</v>
+      </c>
+      <c r="L42" s="21">
         <v>3</v>
       </c>
       <c r="M42" t="s">
         <v>31</v>
       </c>
-      <c r="N42" t="s">
-        <v>74</v>
-      </c>
       <c r="O42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3983,34 +4207,34 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
-      </c>
-      <c r="L43" s="22">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="L43" s="21">
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="O43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4044,34 +4268,37 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
-      </c>
-      <c r="L44" s="22">
+        <v>66</v>
+      </c>
+      <c r="L44" s="21">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4105,37 +4332,37 @@
         <v>2.8</v>
       </c>
       <c r="K45" t="s">
-        <v>71</v>
-      </c>
-      <c r="L45" s="22">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="L45" s="21">
+        <v>1</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
+        <v>73</v>
+      </c>
+      <c r="P45" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>73</v>
+      </c>
+      <c r="R45" t="s">
+        <v>73</v>
+      </c>
+      <c r="S45" t="s">
+        <v>72</v>
+      </c>
+      <c r="T45" t="s">
+        <v>72</v>
+      </c>
+      <c r="U45" t="s">
         <v>75</v>
       </c>
-      <c r="O45" t="s">
-        <v>75</v>
-      </c>
-      <c r="P45" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>75</v>
-      </c>
-      <c r="R45" t="s">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4169,34 +4396,34 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
-      </c>
-      <c r="L46" s="22">
+        <v>64</v>
+      </c>
+      <c r="L46" s="21">
         <v>2</v>
       </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>74</v>
+      <c r="M46" t="s">
+        <v>31</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q46" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4230,34 +4457,40 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
-      </c>
-      <c r="L47" s="22">
+        <v>64</v>
+      </c>
+      <c r="L47" s="21">
         <v>5</v>
       </c>
-      <c r="M47">
-        <v>2</v>
+      <c r="M47" t="s">
+        <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
+        <v>72</v>
+      </c>
+      <c r="T47" t="s">
+        <v>73</v>
+      </c>
+      <c r="U47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4291,34 +4524,34 @@
         <v>2.5</v>
       </c>
       <c r="K48" t="s">
-        <v>66</v>
-      </c>
-      <c r="L48" s="22">
+        <v>64</v>
+      </c>
+      <c r="L48" s="21">
         <v>3</v>
       </c>
-      <c r="M48">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>74</v>
+      <c r="M48" t="s">
+        <v>31</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4352,34 +4585,37 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="K49" t="s">
-        <v>66</v>
-      </c>
-      <c r="L49" s="22">
+        <v>64</v>
+      </c>
+      <c r="L49" s="21">
         <v>3</v>
       </c>
-      <c r="M49">
-        <v>5</v>
+      <c r="M49" t="s">
+        <v>31</v>
       </c>
       <c r="N49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4413,34 +4649,35 @@
         <v>3.9999999999999991</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
-      </c>
-      <c r="L50" s="23">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="L50" s="22">
+        <v>3</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="N50" s="3"/>
       <c r="O50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4474,34 +4711,37 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K51" t="s">
-        <v>70</v>
-      </c>
-      <c r="L51" s="23">
+        <v>68</v>
+      </c>
+      <c r="L51" s="22">
+        <v>5</v>
+      </c>
+      <c r="M51" s="3">
         <v>2</v>
       </c>
-      <c r="M51" s="3">
-        <v>5</v>
-      </c>
       <c r="N51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>72</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4535,10 +4775,19 @@
         <v>3.3</v>
       </c>
       <c r="K52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L52" s="21">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4572,10 +4821,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="L53" s="21">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4609,10 +4864,16 @@
         <v>2.6999999999999997</v>
       </c>
       <c r="K54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L54" s="21">
+        <v>3</v>
+      </c>
+      <c r="M54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4646,10 +4907,19 @@
         <v>4.3000000000000007</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="L55" s="21">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4683,10 +4953,19 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>66</v>
+      </c>
+      <c r="L56" s="21">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4720,10 +4999,16 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>69</v>
+      </c>
+      <c r="L57" s="21">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4757,10 +5042,19 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>65</v>
+      </c>
+      <c r="L58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4794,10 +5088,19 @@
         <v>2.7</v>
       </c>
       <c r="K59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>68</v>
+      </c>
+      <c r="L59" s="21">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4831,10 +5134,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L60" s="21">
+        <v>3</v>
+      </c>
+      <c r="M60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4868,10 +5180,19 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="K61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L61" s="21">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4905,10 +5226,16 @@
         <v>2.5</v>
       </c>
       <c r="K62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L62" s="21">
+        <v>3</v>
+      </c>
+      <c r="M62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4942,10 +5269,19 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>64</v>
+      </c>
+      <c r="L63" s="21">
+        <v>3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4979,10 +5315,16 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K64" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L64" s="21">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5016,10 +5358,22 @@
         <v>3</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L65" s="21">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>73</v>
+      </c>
+      <c r="U65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5053,10 +5407,16 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L66" s="21">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5090,10 +5450,19 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="K67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L67" s="21">
+        <v>3</v>
+      </c>
+      <c r="M67" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5127,10 +5496,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L68" s="21">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5164,10 +5542,19 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L69" s="21">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5201,10 +5588,16 @@
         <v>5.4999999999999991</v>
       </c>
       <c r="K70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L70" s="21">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5238,10 +5631,16 @@
         <v>2.4</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L71" s="21">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5275,10 +5674,16 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="K72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L72" s="21">
+        <v>2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5312,10 +5717,22 @@
         <v>5.3999999999999986</v>
       </c>
       <c r="K73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L73" s="21">
+        <v>3</v>
+      </c>
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+      <c r="U73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5349,10 +5766,19 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L74" s="21">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5386,10 +5812,19 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L75" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="U75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5423,10 +5858,19 @@
         <v>4.7000000000000011</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L76" s="21">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5460,10 +5904,19 @@
         <v>2</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5497,10 +5950,16 @@
         <v>5.3000000000000007</v>
       </c>
       <c r="K78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L78" s="21">
+        <v>2</v>
+      </c>
+      <c r="M78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5534,10 +5993,19 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K79" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L79" s="21">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="U79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5571,10 +6039,16 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K80" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L80" s="21">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5608,10 +6082,19 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K81" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L81" s="21">
+        <v>2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5645,10 +6128,22 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L82" s="21">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>73</v>
+      </c>
+      <c r="U82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5682,10 +6177,19 @@
         <v>2.8</v>
       </c>
       <c r="K83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L83" s="21">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5719,10 +6223,16 @@
         <v>2.5</v>
       </c>
       <c r="K84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L84" s="21">
+        <v>2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5756,10 +6266,19 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L85" s="21">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5793,10 +6312,16 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L86" s="21">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5830,10 +6355,19 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L87" s="21">
+        <v>3</v>
+      </c>
+      <c r="M87" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5867,10 +6401,16 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L88" s="21">
+        <v>3</v>
+      </c>
+      <c r="M88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5904,10 +6444,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L89" s="21">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5941,10 +6487,22 @@
         <v>1.6</v>
       </c>
       <c r="K90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L90" s="21">
+        <v>3</v>
+      </c>
+      <c r="M90" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" t="s">
+        <v>73</v>
+      </c>
+      <c r="U90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5978,10 +6536,22 @@
         <v>3.2</v>
       </c>
       <c r="K91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L91" s="21">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>73</v>
+      </c>
+      <c r="U91" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6015,10 +6585,19 @@
         <v>3.7</v>
       </c>
       <c r="K92" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L92" s="21">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6052,10 +6631,16 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L93" s="21">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6089,10 +6674,16 @@
         <v>4</v>
       </c>
       <c r="K94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L94" s="21">
+        <v>2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6126,10 +6717,16 @@
         <v>3.2999999999999989</v>
       </c>
       <c r="K95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L95" s="21">
+        <v>3</v>
+      </c>
+      <c r="M95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6163,10 +6760,19 @@
         <v>3.5</v>
       </c>
       <c r="K96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L96" s="21">
+        <v>3</v>
+      </c>
+      <c r="M96" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6200,10 +6806,19 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L97" s="21">
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6237,10 +6852,16 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L98" s="21">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6274,10 +6895,37 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L99" s="21">
+        <v>3</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" t="s">
+        <v>73</v>
+      </c>
+      <c r="O99" t="s">
+        <v>72</v>
+      </c>
+      <c r="P99" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>72</v>
+      </c>
+      <c r="R99" t="s">
+        <v>73</v>
+      </c>
+      <c r="S99" t="s">
+        <v>72</v>
+      </c>
+      <c r="T99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6311,10 +6959,40 @@
         <v>5.4</v>
       </c>
       <c r="K100" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L100" s="21">
+        <v>2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" t="s">
+        <v>73</v>
+      </c>
+      <c r="O100" t="s">
+        <v>72</v>
+      </c>
+      <c r="P100" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>72</v>
+      </c>
+      <c r="R100" t="s">
+        <v>73</v>
+      </c>
+      <c r="S100" t="s">
+        <v>72</v>
+      </c>
+      <c r="T100" t="s">
+        <v>73</v>
+      </c>
+      <c r="U100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6348,10 +7026,34 @@
         <v>3.3999999999999995</v>
       </c>
       <c r="K101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L101" s="21">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="O101" t="s">
+        <v>73</v>
+      </c>
+      <c r="P101" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>72</v>
+      </c>
+      <c r="R101" t="s">
+        <v>73</v>
+      </c>
+      <c r="S101" t="s">
+        <v>72</v>
+      </c>
+      <c r="T101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6385,10 +7087,19 @@
         <v>5.0000000000000009</v>
       </c>
       <c r="K102" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L102" s="21">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6422,10 +7133,19 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K103" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L103" s="21">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>4</v>
+      </c>
+      <c r="U103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6459,10 +7179,22 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K104" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L104" s="21">
+        <v>3</v>
+      </c>
+      <c r="M104" t="s">
+        <v>31</v>
+      </c>
+      <c r="N104" t="s">
+        <v>73</v>
+      </c>
+      <c r="U104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6496,10 +7228,22 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K105" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L105" s="21">
+        <v>3</v>
+      </c>
+      <c r="M105" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" t="s">
+        <v>73</v>
+      </c>
+      <c r="U105" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6533,10 +7277,16 @@
         <v>2.5</v>
       </c>
       <c r="K106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L106" s="21">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6570,10 +7320,22 @@
         <v>6.1</v>
       </c>
       <c r="K107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L107" s="21">
+        <v>3</v>
+      </c>
+      <c r="M107" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" t="s">
+        <v>73</v>
+      </c>
+      <c r="U107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6607,10 +7369,16 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="K108" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L108" s="21">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6644,10 +7412,19 @@
         <v>1.5</v>
       </c>
       <c r="K109" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L109" s="21">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6681,10 +7458,19 @@
         <v>2.0000000000000004</v>
       </c>
       <c r="K110" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L110" s="21">
+        <v>3</v>
+      </c>
+      <c r="M110" t="s">
+        <v>31</v>
+      </c>
+      <c r="U110" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6718,10 +7504,19 @@
         <v>3.2</v>
       </c>
       <c r="K111" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L111" s="21">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6755,10 +7550,19 @@
         <v>3.6999999999999993</v>
       </c>
       <c r="K112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L112" s="21">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6792,10 +7596,19 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L113" s="21">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6829,10 +7642,16 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K114" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L114" s="21">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6866,10 +7685,19 @@
         <v>4.1000000000000014</v>
       </c>
       <c r="K115" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L115" s="21">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6903,10 +7731,19 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K116" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L116" s="21">
+        <v>3</v>
+      </c>
+      <c r="M116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6940,10 +7777,19 @@
         <v>3.2</v>
       </c>
       <c r="K117" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L117" s="21">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="U117" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6977,10 +7823,16 @@
         <v>4.5</v>
       </c>
       <c r="K118" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L118" s="21">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7014,10 +7866,19 @@
         <v>2</v>
       </c>
       <c r="K119" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L119" s="21">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7051,10 +7912,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K120" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L120" s="21">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7088,10 +7955,16 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="K121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L121" s="21">
+        <v>3</v>
+      </c>
+      <c r="M121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7125,10 +7998,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K122" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L122" s="21">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7162,10 +8044,19 @@
         <v>3</v>
       </c>
       <c r="K123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L123" s="21">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>5</v>
+      </c>
+      <c r="N123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7199,10 +8090,22 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="K124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L124" s="21">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124" t="s">
+        <v>73</v>
+      </c>
+      <c r="U124" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7236,10 +8139,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L125" s="21">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7273,10 +8182,16 @@
         <v>4.3</v>
       </c>
       <c r="K126" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L126" s="21">
+        <v>3</v>
+      </c>
+      <c r="M126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7310,10 +8225,16 @@
         <v>5.1000000000000005</v>
       </c>
       <c r="K127" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L127" s="21">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7347,10 +8268,19 @@
         <v>4.5</v>
       </c>
       <c r="K128" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L128" s="21">
+        <v>3</v>
+      </c>
+      <c r="M128" t="s">
+        <v>31</v>
+      </c>
+      <c r="U128" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7384,10 +8314,16 @@
         <v>1.2999999999999998</v>
       </c>
       <c r="K129" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L129" s="21">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7421,10 +8357,19 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="K130" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L130" s="21">
+        <v>3</v>
+      </c>
+      <c r="M130" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7458,10 +8403,16 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="K131" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L131" s="21">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7495,10 +8446,16 @@
         <v>2.5</v>
       </c>
       <c r="K132" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L132" s="21">
+        <v>2</v>
+      </c>
+      <c r="M132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7532,10 +8489,19 @@
         <v>2.7</v>
       </c>
       <c r="K133" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L133" s="21">
+        <v>1</v>
+      </c>
+      <c r="M133" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7569,10 +8535,16 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L134" s="21">
+        <v>2</v>
+      </c>
+      <c r="M134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7606,10 +8578,16 @@
         <v>2.1999999999999997</v>
       </c>
       <c r="K135" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L135" s="21">
+        <v>3</v>
+      </c>
+      <c r="M135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7643,10 +8621,16 @@
         <v>1.4</v>
       </c>
       <c r="K136" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L136" s="21">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7680,10 +8664,16 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K137" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L137" s="21">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7717,10 +8707,19 @@
         <v>2.9</v>
       </c>
       <c r="K138" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L138" s="21">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7754,10 +8753,16 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="K139" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L139" s="21">
+        <v>3</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7791,10 +8796,16 @@
         <v>2.9000000000000004</v>
       </c>
       <c r="K140" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L140" s="21">
+        <v>3</v>
+      </c>
+      <c r="M140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7828,10 +8839,19 @@
         <v>3.2</v>
       </c>
       <c r="K141" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L141" s="21">
+        <v>2</v>
+      </c>
+      <c r="M141" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7861,10 +8881,16 @@
         <v>3</v>
       </c>
       <c r="K142" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L142" s="21">
+        <v>3</v>
+      </c>
+      <c r="M142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7894,10 +8920,22 @@
         <v>4.2</v>
       </c>
       <c r="K143" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L143" s="21">
+        <v>5</v>
+      </c>
+      <c r="M143" t="s">
+        <v>31</v>
+      </c>
+      <c r="N143" t="s">
+        <v>73</v>
+      </c>
+      <c r="U143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144">
         <v>143</v>
       </c>
@@ -7927,10 +8965,19 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="K144" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L144" s="21">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="U144" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145">
         <v>144</v>
       </c>
@@ -7960,10 +9007,16 @@
         <v>2.7</v>
       </c>
       <c r="K145" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L145" s="21">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146">
         <v>145</v>
       </c>
@@ -7993,10 +9046,16 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K146" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L146" s="21">
+        <v>3</v>
+      </c>
+      <c r="M146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8026,10 +9085,16 @@
         <v>1.5999999999999996</v>
       </c>
       <c r="K147" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L147" s="21">
+        <v>5</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8059,10 +9124,22 @@
         <v>3.5</v>
       </c>
       <c r="K148" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L148" s="21">
+        <v>1</v>
+      </c>
+      <c r="M148" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" t="s">
+        <v>73</v>
+      </c>
+      <c r="U148" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8092,10 +9169,19 @@
         <v>3.9000000000000004</v>
       </c>
       <c r="K149" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L149" s="21">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8125,10 +9211,22 @@
         <v>2.8</v>
       </c>
       <c r="K150" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L150" s="21">
+        <v>2</v>
+      </c>
+      <c r="M150" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" t="s">
+        <v>73</v>
+      </c>
+      <c r="U150" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8158,10 +9256,19 @@
         <v>3.1000000000000005</v>
       </c>
       <c r="K151" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L151" s="21">
+        <v>3</v>
+      </c>
+      <c r="M151" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152">
         <v>151</v>
       </c>
@@ -8191,10 +9298,19 @@
         <v>3</v>
       </c>
       <c r="K152" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L152" s="21">
+        <v>1</v>
+      </c>
+      <c r="M152" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153">
         <v>152</v>
       </c>
@@ -8224,10 +9340,19 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K153" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L153" s="21">
+        <v>3</v>
+      </c>
+      <c r="M153" t="s">
+        <v>31</v>
+      </c>
+      <c r="U153" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>153</v>
       </c>
@@ -8257,10 +9382,16 @@
         <v>2.5</v>
       </c>
       <c r="K154" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L154" s="21">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>154</v>
       </c>
@@ -8290,10 +9421,19 @@
         <v>2.6</v>
       </c>
       <c r="K155" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L155" s="21">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>155</v>
       </c>
@@ -8323,10 +9463,19 @@
         <v>3.8999999999999995</v>
       </c>
       <c r="K156" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L156" s="21">
+        <v>2</v>
+      </c>
+      <c r="M156" t="s">
+        <v>31</v>
+      </c>
+      <c r="N156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>156</v>
       </c>
@@ -8356,10 +9505,22 @@
         <v>2.7</v>
       </c>
       <c r="K157" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L157" s="21">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157" t="s">
+        <v>73</v>
+      </c>
+      <c r="U157" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
       <c r="A158">
         <v>157</v>
       </c>
@@ -8389,10 +9550,19 @@
         <v>3.1999999999999993</v>
       </c>
       <c r="K158" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L158" s="21">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
       <c r="A159">
         <v>158</v>
       </c>
@@ -8422,10 +9592,19 @@
         <v>3</v>
       </c>
       <c r="K159" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L159" s="21">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
       <c r="A160">
         <v>159</v>
       </c>
@@ -8455,10 +9634,19 @@
         <v>4.3999999999999995</v>
       </c>
       <c r="K160" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L160" s="21">
+        <v>3</v>
+      </c>
+      <c r="M160" t="s">
+        <v>31</v>
+      </c>
+      <c r="N160" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161">
         <v>160</v>
       </c>
@@ -8488,10 +9676,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K161" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L161" s="21">
+        <v>2</v>
+      </c>
+      <c r="M161" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162">
         <v>161</v>
       </c>
@@ -8521,10 +9718,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K162" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L162" s="21">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>162</v>
       </c>
@@ -8554,10 +9757,16 @@
         <v>2.4999999999999991</v>
       </c>
       <c r="K163" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L163" s="21">
+        <v>2</v>
+      </c>
+      <c r="M163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>163</v>
       </c>
@@ -8587,10 +9796,22 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="K164" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L164" s="21">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164" t="s">
+        <v>73</v>
+      </c>
+      <c r="U164" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>164</v>
       </c>
@@ -8620,10 +9841,19 @@
         <v>2.7</v>
       </c>
       <c r="K165" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L165" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>165</v>
       </c>
@@ -8653,10 +9883,16 @@
         <v>2.6999999999999993</v>
       </c>
       <c r="K166" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L166" s="21">
+        <v>3</v>
+      </c>
+      <c r="M166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>166</v>
       </c>
@@ -8686,10 +9922,19 @@
         <v>1.6999999999999997</v>
       </c>
       <c r="K167" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L167" s="21">
+        <v>3</v>
+      </c>
+      <c r="M167" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168">
         <v>167</v>
       </c>
@@ -8719,10 +9964,19 @@
         <v>5.4</v>
       </c>
       <c r="K168" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L168" s="21">
+        <v>1</v>
+      </c>
+      <c r="M168" t="s">
+        <v>31</v>
+      </c>
+      <c r="N168" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169">
         <v>168</v>
       </c>
@@ -8752,10 +10006,19 @@
         <v>2.8000000000000007</v>
       </c>
       <c r="K169" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L169" s="21">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170">
         <v>169</v>
       </c>
@@ -8785,10 +10048,19 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="K170" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L170" s="21">
+        <v>3</v>
+      </c>
+      <c r="M170" t="s">
+        <v>31</v>
+      </c>
+      <c r="N170" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171">
         <v>170</v>
       </c>
@@ -8818,10 +10090,19 @@
         <v>2.5000000000000004</v>
       </c>
       <c r="K171" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L171" s="21">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>5</v>
+      </c>
+      <c r="N171" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172">
         <v>171</v>
       </c>
@@ -8851,10 +10132,19 @@
         <v>3.0999999999999996</v>
       </c>
       <c r="K172" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L172" s="21">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>5</v>
+      </c>
+      <c r="N172" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>172</v>
       </c>
@@ -8884,10 +10174,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K173" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L173" s="21">
+        <v>1</v>
+      </c>
+      <c r="M173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>173</v>
       </c>
@@ -8917,10 +10213,19 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K174" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L174" s="21">
+        <v>2</v>
+      </c>
+      <c r="M174" t="s">
+        <v>31</v>
+      </c>
+      <c r="N174" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>174</v>
       </c>
@@ -8950,10 +10255,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K175" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L175" s="21">
+        <v>3</v>
+      </c>
+      <c r="M175" t="s">
+        <v>31</v>
+      </c>
+      <c r="N175" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8983,10 +10297,19 @@
         <v>1.9999999999999996</v>
       </c>
       <c r="K176" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="L176" t="s">
+        <v>70</v>
+      </c>
+      <c r="M176" t="s">
+        <v>70</v>
+      </c>
+      <c r="N176" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9016,10 +10339,16 @@
         <v>2.5</v>
       </c>
       <c r="K177" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L177" s="21">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9049,10 +10378,19 @@
         <v>3.2</v>
       </c>
       <c r="K178" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L178" s="21">
+        <v>3</v>
+      </c>
+      <c r="M178" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9082,10 +10420,16 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K179" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L179" s="21">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9115,10 +10459,19 @@
         <v>3.5</v>
       </c>
       <c r="K180" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L180" s="21">
+        <v>3</v>
+      </c>
+      <c r="M180" t="s">
+        <v>31</v>
+      </c>
+      <c r="U180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9148,10 +10501,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K181" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L181" s="21">
+        <v>2</v>
+      </c>
+      <c r="M181" t="s">
+        <v>31</v>
+      </c>
+      <c r="N181" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9181,10 +10543,16 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K182" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L182" s="21">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9214,10 +10582,16 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="K183" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L183" s="21">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>183</v>
       </c>
@@ -9247,10 +10621,19 @@
         <v>2.5</v>
       </c>
       <c r="K184" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L184" s="21">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>184</v>
       </c>
@@ -9280,10 +10663,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K185" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L185" s="21">
+        <v>2</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>185</v>
       </c>
@@ -9313,10 +10702,22 @@
         <v>2.4</v>
       </c>
       <c r="K186" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L186" s="21">
+        <v>1</v>
+      </c>
+      <c r="M186" t="s">
+        <v>31</v>
+      </c>
+      <c r="N186" t="s">
+        <v>73</v>
+      </c>
+      <c r="U186" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>186</v>
       </c>
@@ -9346,10 +10747,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K187" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L187" s="21">
+        <v>2</v>
+      </c>
+      <c r="M187" t="s">
+        <v>31</v>
+      </c>
+      <c r="U187" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>187</v>
       </c>
@@ -9379,10 +10789,16 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K188" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L188" s="21">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>188</v>
       </c>
@@ -9412,10 +10828,19 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="K189" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L189" s="21">
+        <v>3</v>
+      </c>
+      <c r="M189" t="s">
+        <v>31</v>
+      </c>
+      <c r="N189" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>189</v>
       </c>
@@ -9445,10 +10870,16 @@
         <v>3.3</v>
       </c>
       <c r="K190" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L190" s="21">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>190</v>
       </c>
@@ -9478,10 +10909,19 @@
         <v>2.5</v>
       </c>
       <c r="K191" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L191" s="21">
+        <v>1</v>
+      </c>
+      <c r="M191" t="s">
+        <v>31</v>
+      </c>
+      <c r="N191" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>191</v>
       </c>
@@ -9511,10 +10951,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K192" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L192" s="21">
+        <v>2</v>
+      </c>
+      <c r="M192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>192</v>
       </c>
@@ -9544,10 +10990,19 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="K193" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L193" s="21">
+        <v>2</v>
+      </c>
+      <c r="M193" t="s">
+        <v>31</v>
+      </c>
+      <c r="N193" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>193</v>
       </c>
@@ -9577,10 +11032,16 @@
         <v>1.9000000000000004</v>
       </c>
       <c r="K194" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L194" s="21">
+        <v>3</v>
+      </c>
+      <c r="M194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>194</v>
       </c>
@@ -9610,10 +11071,19 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K195" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L195" s="21">
+        <v>2</v>
+      </c>
+      <c r="M195" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>195</v>
       </c>
@@ -9643,10 +11113,22 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K196" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L196" s="21">
+        <v>3</v>
+      </c>
+      <c r="M196" t="s">
+        <v>31</v>
+      </c>
+      <c r="N196" t="s">
+        <v>73</v>
+      </c>
+      <c r="U196" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>196</v>
       </c>
@@ -9676,10 +11158,16 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="K197" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L197" s="21">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>197</v>
       </c>
@@ -9709,10 +11197,16 @@
         <v>3.2000000000000011</v>
       </c>
       <c r="K198" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L198" s="21">
+        <v>3</v>
+      </c>
+      <c r="M198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>198</v>
       </c>
@@ -9742,10 +11236,22 @@
         <v>3.6000000000000005</v>
       </c>
       <c r="K199" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L199" s="21">
+        <v>2</v>
+      </c>
+      <c r="M199" t="s">
+        <v>31</v>
+      </c>
+      <c r="N199" t="s">
+        <v>73</v>
+      </c>
+      <c r="U199" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>199</v>
       </c>
@@ -9775,10 +11281,19 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="K200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L200" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="U200" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>200</v>
       </c>
@@ -9808,10 +11323,16 @@
         <v>1.4000000000000004</v>
       </c>
       <c r="K201" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L201" s="21">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>201</v>
       </c>
@@ -9841,10 +11362,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K202" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L202" s="21">
+        <v>3</v>
+      </c>
+      <c r="M202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>202</v>
       </c>
@@ -9874,10 +11401,19 @@
         <v>3</v>
       </c>
       <c r="K203" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L203" s="21">
+        <v>3</v>
+      </c>
+      <c r="M203" t="s">
+        <v>31</v>
+      </c>
+      <c r="N203" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>203</v>
       </c>
@@ -9907,10 +11443,16 @@
         <v>2.5000000000000009</v>
       </c>
       <c r="K204" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L204" s="21">
+        <v>2</v>
+      </c>
+      <c r="M204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>204</v>
       </c>
@@ -9940,10 +11482,16 @@
         <v>3.3</v>
       </c>
       <c r="K205" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L205" s="21">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>205</v>
       </c>
@@ -9973,10 +11521,19 @@
         <v>1.4999999999999996</v>
       </c>
       <c r="K206" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L206" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="U206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10006,10 +11563,16 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="K207" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L207" s="21">
+        <v>1</v>
+      </c>
+      <c r="M207" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10039,10 +11602,16 @@
         <v>2.3000000000000007</v>
       </c>
       <c r="K208" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L208" s="21">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10072,10 +11641,16 @@
         <v>1.4</v>
       </c>
       <c r="K209" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L209" s="21">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10105,10 +11680,16 @@
         <v>4.3000000000000007</v>
       </c>
       <c r="K210" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L210" s="21">
+        <v>3</v>
+      </c>
+      <c r="M210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10138,10 +11719,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K211" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L211" s="21">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="U211" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10171,10 +11761,16 @@
         <v>2.8</v>
       </c>
       <c r="K212" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L212" s="21">
+        <v>3</v>
+      </c>
+      <c r="M212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10204,10 +11800,16 @@
         <v>1.0999999999999999</v>
       </c>
       <c r="K213" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L213" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10237,10 +11839,16 @@
         <v>3.6999999999999993</v>
       </c>
       <c r="K214" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L214" s="21">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10270,10 +11878,19 @@
         <v>1.3000000000000007</v>
       </c>
       <c r="K215" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="L215" s="21">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="U215" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10303,10 +11920,22 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="K216" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L216" s="21">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216" t="s">
+        <v>73</v>
+      </c>
+      <c r="U216" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10336,10 +11965,16 @@
         <v>5.2999999999999989</v>
       </c>
       <c r="K217" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L217" s="21">
+        <v>2</v>
+      </c>
+      <c r="M217" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>217</v>
       </c>
@@ -10369,10 +12004,16 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K218" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L218" s="21">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
       <c r="A219">
         <v>218</v>
       </c>
@@ -10402,10 +12043,16 @@
         <v>2.1000000000000005</v>
       </c>
       <c r="K219" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L219" s="21">
+        <v>2</v>
+      </c>
+      <c r="M219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>219</v>
       </c>
@@ -10435,10 +12082,16 @@
         <v>2.8999999999999995</v>
       </c>
       <c r="K220" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L220" s="21">
+        <v>2</v>
+      </c>
+      <c r="M220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>220</v>
       </c>
@@ -10468,10 +12121,19 @@
         <v>3.5</v>
       </c>
       <c r="K221" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L221" s="21">
+        <v>3</v>
+      </c>
+      <c r="M221" t="s">
+        <v>31</v>
+      </c>
+      <c r="N221" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>221</v>
       </c>
@@ -10501,10 +12163,19 @@
         <v>3.8999999999999995</v>
       </c>
       <c r="K222" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L222" s="21">
+        <v>3</v>
+      </c>
+      <c r="M222" t="s">
+        <v>31</v>
+      </c>
+      <c r="N222" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>222</v>
       </c>
@@ -10534,10 +12205,16 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K223" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L223" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>223</v>
       </c>
@@ -10567,10 +12244,16 @@
         <v>2.5999999999999996</v>
       </c>
       <c r="K224" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L224" s="21">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>224</v>
       </c>
@@ -10600,10 +12283,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="K225" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L225" s="21">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>225</v>
       </c>
@@ -10633,10 +12322,16 @@
         <v>3.5000000000000009</v>
       </c>
       <c r="K226" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+        <v>69</v>
+      </c>
+      <c r="L226" s="21">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>226</v>
       </c>
@@ -10666,10 +12361,19 @@
         <v>2.1</v>
       </c>
       <c r="K227" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L227" s="21">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>227</v>
       </c>
@@ -10699,10 +12403,16 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K228" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L228" s="21">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>228</v>
       </c>
@@ -10732,10 +12442,16 @@
         <v>2.6999999999999997</v>
       </c>
       <c r="K229" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L229" s="21">
+        <v>3</v>
+      </c>
+      <c r="M229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>229</v>
       </c>
@@ -10765,10 +12481,16 @@
         <v>3.8999999999999995</v>
       </c>
       <c r="K230" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L230" s="21">
+        <v>3</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>230</v>
       </c>
@@ -10798,10 +12520,19 @@
         <v>4.8000000000000007</v>
       </c>
       <c r="K231" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L231" s="21">
+        <v>2</v>
+      </c>
+      <c r="M231" t="s">
+        <v>31</v>
+      </c>
+      <c r="N231" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21">
       <c r="A232">
         <v>231</v>
       </c>
@@ -10831,10 +12562,19 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="K232" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L232" s="21">
+        <v>2</v>
+      </c>
+      <c r="M232" t="s">
+        <v>31</v>
+      </c>
+      <c r="N232" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>232</v>
       </c>
@@ -10864,10 +12604,16 @@
         <v>2</v>
       </c>
       <c r="K233" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L233" s="21">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>233</v>
       </c>
@@ -10897,10 +12643,16 @@
         <v>2.0999999999999996</v>
       </c>
       <c r="K234" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L234" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>234</v>
       </c>
@@ -10930,10 +12682,19 @@
         <v>4.2</v>
       </c>
       <c r="K235" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L235" s="21">
+        <v>2</v>
+      </c>
+      <c r="M235" t="s">
+        <v>31</v>
+      </c>
+      <c r="N235" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>235</v>
       </c>
@@ -10963,10 +12724,16 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="K236" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L236" s="21">
+        <v>2</v>
+      </c>
+      <c r="M236" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21">
       <c r="A237">
         <v>236</v>
       </c>
@@ -10996,10 +12763,13 @@
         <v>1.6999999999999997</v>
       </c>
       <c r="K237" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L237" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11029,10 +12799,22 @@
         <v>3</v>
       </c>
       <c r="K238" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L238" s="21">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
+        <v>31</v>
+      </c>
+      <c r="N238" t="s">
+        <v>73</v>
+      </c>
+      <c r="U238" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11062,10 +12844,16 @@
         <v>1.6999999999999997</v>
       </c>
       <c r="K239" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L239" s="21">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11095,10 +12883,16 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="K240" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L240" s="21">
+        <v>3</v>
+      </c>
+      <c r="M240" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11128,10 +12922,19 @@
         <v>2.3999999999999995</v>
       </c>
       <c r="K241" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L241" s="21">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>5</v>
+      </c>
+      <c r="U241" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11161,7 +12964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:21">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11191,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:21">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11221,7 +13024,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:21">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11251,7 +13054,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:21">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11281,7 +13084,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:21">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11311,7 +13114,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:21">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11341,7 +13144,7 @@
         <v>2.9999999999999991</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:21">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11371,7 +13174,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:21">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11401,7 +13204,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:21">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11431,7 +13234,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:21">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11461,7 +13264,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:21">
       <c r="A253">
         <v>252</v>
       </c>
@@ -11491,7 +13294,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:21">
       <c r="A254">
         <v>253</v>
       </c>
@@ -11521,7 +13324,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:21">
       <c r="A255">
         <v>254</v>
       </c>
@@ -11551,7 +13354,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:21">
       <c r="A256">
         <v>255</v>
       </c>
@@ -17705,19 +19508,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="49" customHeight="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="31" customHeight="1">
       <c r="A3" s="11" t="s">

--- a/data/Sample-Data.xlsx
+++ b/data/Sample-Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/roberts-lab/O.lurida_Temperature/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC8B13-3114-0141-BD13-1EE57E0CA588}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18280" yWindow="0" windowWidth="12320" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="15080" yWindow="460" windowWidth="13720" windowHeight="17540" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hist Samples" sheetId="1" r:id="rId1"/>
@@ -13,8 +19,13 @@
     <sheet name="Spawning Groups" sheetId="5" r:id="rId4"/>
     <sheet name="Dates" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -340,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -398,6 +409,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1298,6 +1310,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1622,39 +1642,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U387"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1020" topLeftCell="A212" activePane="bottomLeft"/>
-      <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="M239" sqref="M239"/>
+    <sheetView showRuler="0" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.5" style="4" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="21" customWidth="1"/>
     <col min="13" max="14" width="9.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="16" customFormat="1" ht="38" customHeight="1">
+    <row r="1" spans="1:21" s="16" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1777,7 +1795,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1838,7 +1856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2204,7 +2222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2265,7 +2283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2326,7 +2344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2509,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2570,7 +2588,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2634,7 +2652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2698,7 +2716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2759,7 +2777,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2881,7 +2899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2999,7 +3017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3056,7 +3074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3290,7 +3308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3347,7 +3365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3464,7 +3482,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3698,7 +3716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3875,7 +3893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3992,7 +4010,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4112,7 +4130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4173,7 +4191,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4298,7 +4316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4551,7 +4569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4615,7 +4633,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4677,7 +4695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4741,7 +4759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4787,7 +4805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4830,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4873,7 +4891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4919,7 +4937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4965,7 +4983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5008,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5054,7 +5072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5100,7 +5118,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5146,7 +5164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5192,7 +5210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5235,7 +5253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5281,7 +5299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5324,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5373,7 +5391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5416,7 +5434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5462,7 +5480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5554,7 +5572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5597,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5683,7 +5701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5959,7 +5977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6005,7 +6023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6048,7 +6066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6143,7 +6161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6189,7 +6207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6232,7 +6250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6278,7 +6296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6321,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6410,7 +6428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6453,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6502,7 +6520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6597,7 +6615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6640,7 +6658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6683,7 +6701,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6726,7 +6744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6772,7 +6790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6818,7 +6836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6861,7 +6879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6992,7 +7010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7053,7 +7071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7099,7 +7117,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7145,7 +7163,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7194,7 +7212,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7243,7 +7261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7286,7 +7304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7335,7 +7353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7424,7 +7442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7470,7 +7488,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7516,7 +7534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7562,7 +7580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7608,7 +7626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7651,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7697,7 +7715,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7743,7 +7761,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7789,7 +7807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7832,7 +7850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7878,7 +7896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7921,7 +7939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7964,7 +7982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8010,7 +8028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8056,7 +8074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8105,7 +8123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8148,7 +8166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8191,7 +8209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8234,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8280,7 +8298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8323,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8369,7 +8387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8412,7 +8430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8455,7 +8473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8501,7 +8519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8544,7 +8562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8673,7 +8691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8719,7 +8737,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8762,7 +8780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8805,7 +8823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8851,7 +8869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8890,7 +8908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8935,7 +8953,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8977,7 +8995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9016,7 +9034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9055,7 +9073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9094,7 +9112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9139,7 +9157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9181,7 +9199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9226,7 +9244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9268,7 +9286,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9310,7 +9328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9352,7 +9370,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9391,7 +9409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9433,7 +9451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9475,7 +9493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9520,7 +9538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9562,7 +9580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9604,7 +9622,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9646,7 +9664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9727,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9766,7 +9784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9811,7 +9829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9853,7 +9871,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9892,7 +9910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9934,7 +9952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9976,7 +9994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10018,7 +10036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10060,7 +10078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10102,7 +10120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10144,7 +10162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10183,7 +10201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10225,7 +10243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10267,7 +10285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10309,7 +10327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10348,7 +10366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10390,7 +10408,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10429,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10471,7 +10489,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10513,7 +10531,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10552,7 +10570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10591,7 +10609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10633,7 +10651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10672,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10717,7 +10735,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10759,7 +10777,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10798,7 +10816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10840,7 +10858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10879,7 +10897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10921,7 +10939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10960,7 +10978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11002,7 +11020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11041,7 +11059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11083,7 +11101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11128,7 +11146,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11167,7 +11185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11206,7 +11224,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11251,7 +11269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11293,7 +11311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11332,7 +11350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11371,7 +11389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11413,7 +11431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11452,7 +11470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11491,7 +11509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11533,7 +11551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11572,7 +11590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11611,7 +11629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11650,7 +11668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11731,7 +11749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11770,7 +11788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11809,7 +11827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11848,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11890,7 +11908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11935,7 +11953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11974,7 +11992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12013,7 +12031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>218</v>
       </c>
@@ -12052,7 +12070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12091,7 +12109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12133,7 +12151,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12175,7 +12193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12214,7 +12232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12253,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12292,7 +12310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12331,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12373,7 +12391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12412,7 +12430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12451,7 +12469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12490,7 +12508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12532,7 +12550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:21">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12574,7 +12592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12613,7 +12631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12652,7 +12670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12694,7 +12712,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12733,7 +12751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:21">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12769,7 +12787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12814,7 +12832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12853,7 +12871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12892,7 +12910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12934,7 +12952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12964,7 +12982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:21">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12994,7 +13012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
@@ -13024,7 +13042,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13054,7 +13072,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13084,7 +13102,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
@@ -13114,7 +13132,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:21">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13144,7 +13162,7 @@
         <v>2.9999999999999991</v>
       </c>
     </row>
-    <row r="249" spans="1:21">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13174,7 +13192,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:21">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13204,7 +13222,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="251" spans="1:21">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13234,7 +13252,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:21">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13264,7 +13282,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="253" spans="1:21">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13294,7 +13312,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="254" spans="1:21">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13324,7 +13342,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="255" spans="1:21">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13354,7 +13372,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="256" spans="1:21">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13384,7 +13402,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13414,7 +13432,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13444,7 +13462,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13474,7 +13492,7 @@
         <v>2.8999999999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13504,7 +13522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13534,7 +13552,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13564,7 +13582,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13594,7 +13612,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13624,7 +13642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13654,7 +13672,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13684,7 +13702,7 @@
         <v>1.5999999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13714,7 +13732,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13744,7 +13762,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13774,7 +13792,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13804,7 +13822,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13834,7 +13852,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13864,7 +13882,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13894,7 +13912,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13924,7 +13942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13954,7 +13972,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13984,7 +14002,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14014,7 +14032,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14044,7 +14062,7 @@
         <v>3.8000000000000007</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14074,7 +14092,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14104,7 +14122,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14134,7 +14152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14164,7 +14182,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14194,7 +14212,7 @@
         <v>2.8999999999999995</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14224,7 +14242,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14254,7 +14272,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14284,7 +14302,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14314,7 +14332,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14344,7 +14362,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14374,7 +14392,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14404,7 +14422,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14434,7 +14452,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14461,7 +14479,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14488,7 +14506,7 @@
         <v>1.3000000000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14515,7 +14533,7 @@
         <v>3.1999999999999993</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14542,7 +14560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14569,7 +14587,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14596,7 +14614,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14623,7 +14641,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14650,7 +14668,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14677,7 +14695,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14704,7 +14722,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14731,7 +14749,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14758,7 +14776,7 @@
         <v>2.8999999999999995</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14785,7 +14803,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14812,7 +14830,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>305</v>
       </c>
@@ -14839,7 +14857,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>306</v>
       </c>
@@ -14866,7 +14884,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>307</v>
       </c>
@@ -14893,7 +14911,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>308</v>
       </c>
@@ -14920,7 +14938,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>309</v>
       </c>
@@ -14947,7 +14965,7 @@
         <v>2.6000000000000005</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>310</v>
       </c>
@@ -14974,7 +14992,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15001,7 +15019,7 @@
         <v>3.1000000000000005</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15028,7 +15046,7 @@
         <v>3.3000000000000007</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15055,7 +15073,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15082,7 +15100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15109,7 +15127,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15136,7 +15154,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15163,7 +15181,7 @@
         <v>2.6000000000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15190,7 +15208,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15216,7 +15234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15243,7 +15261,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15270,7 +15288,7 @@
         <v>1.8999999999999995</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15297,7 +15315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15324,7 +15342,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15351,7 +15369,7 @@
         <v>2.6999999999999993</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15378,7 +15396,7 @@
         <v>2.3000000000000007</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15405,7 +15423,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15432,7 +15450,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15459,7 +15477,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15486,7 +15504,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15513,7 +15531,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15540,7 +15558,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15567,7 +15585,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>333</v>
       </c>
@@ -15594,7 +15612,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>334</v>
       </c>
@@ -15621,7 +15639,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>335</v>
       </c>
@@ -15648,7 +15666,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>336</v>
       </c>
@@ -15675,7 +15693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>337</v>
       </c>
@@ -15702,7 +15720,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>338</v>
       </c>
@@ -15729,7 +15747,7 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>339</v>
       </c>
@@ -15756,7 +15774,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>340</v>
       </c>
@@ -15783,7 +15801,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>341</v>
       </c>
@@ -15810,7 +15828,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>342</v>
       </c>
@@ -15837,7 +15855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>343</v>
       </c>
@@ -15864,7 +15882,7 @@
         <v>1.8000000000000003</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>344</v>
       </c>
@@ -15891,7 +15909,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>345</v>
       </c>
@@ -15918,7 +15936,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>346</v>
       </c>
@@ -15945,7 +15963,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>347</v>
       </c>
@@ -15972,7 +15990,7 @@
         <v>4.1999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>348</v>
       </c>
@@ -15999,7 +16017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16026,7 +16044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16053,7 +16071,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16080,7 +16098,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16107,7 +16125,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>353</v>
       </c>
@@ -16134,7 +16152,7 @@
         <v>1.6000000000000005</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>354</v>
       </c>
@@ -16161,7 +16179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>355</v>
       </c>
@@ -16188,7 +16206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>356</v>
       </c>
@@ -16215,7 +16233,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>357</v>
       </c>
@@ -16242,7 +16260,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>358</v>
       </c>
@@ -16269,7 +16287,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>359</v>
       </c>
@@ -16296,7 +16314,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>360</v>
       </c>
@@ -16323,7 +16341,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>361</v>
       </c>
@@ -16350,7 +16368,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>362</v>
       </c>
@@ -16377,7 +16395,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>363</v>
       </c>
@@ -16403,7 +16421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>364</v>
       </c>
@@ -16429,7 +16447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>365</v>
       </c>
@@ -16455,7 +16473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>366</v>
       </c>
@@ -16481,7 +16499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>367</v>
       </c>
@@ -16507,7 +16525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>368</v>
       </c>
@@ -16533,7 +16551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>369</v>
       </c>
@@ -16559,7 +16577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>370</v>
       </c>
@@ -16585,7 +16603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>371</v>
       </c>
@@ -16611,7 +16629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>372</v>
       </c>
@@ -16637,7 +16655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>373</v>
       </c>
@@ -16663,7 +16681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>374</v>
       </c>
@@ -16689,7 +16707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>375</v>
       </c>
@@ -16716,7 +16734,7 @@
         <v>2.2000000000000011</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>376</v>
       </c>
@@ -16743,7 +16761,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>377</v>
       </c>
@@ -16769,7 +16787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>378</v>
       </c>
@@ -16796,7 +16814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>379</v>
       </c>
@@ -16823,7 +16841,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>380</v>
       </c>
@@ -16850,7 +16868,7 @@
         <v>1.4000000000000004</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>381</v>
       </c>
@@ -16877,7 +16895,7 @@
         <v>3.3000000000000007</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>382</v>
       </c>
@@ -16904,7 +16922,7 @@
         <v>2.2999999999999989</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>383</v>
       </c>
@@ -16931,7 +16949,7 @@
         <v>2.2999999999999989</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>384</v>
       </c>
@@ -16958,7 +16976,7 @@
         <v>1.2999999999999989</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>385</v>
       </c>
@@ -16985,7 +17003,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17024,14 +17042,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="4" customWidth="1"/>
@@ -17040,13 +17058,13 @@
     <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -17069,7 +17087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -17090,7 +17108,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>1+A3</f>
         <v>22</v>
@@ -17112,7 +17130,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A68" si="1">1+A4</f>
         <v>23</v>
@@ -17134,7 +17152,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -17156,7 +17174,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -17178,7 +17196,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -17200,7 +17218,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -17222,7 +17240,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -17244,7 +17262,7 @@
         <v>2.9999999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -17266,7 +17284,7 @@
         <v>2.8000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -17288,7 +17306,7 @@
         <v>4.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -17310,7 +17328,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -17332,7 +17350,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -17354,7 +17372,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -17376,7 +17394,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -17398,7 +17416,7 @@
         <v>2.5000000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -17420,7 +17438,7 @@
         <v>1.9999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -17442,7 +17460,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -17464,7 +17482,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -17486,7 +17504,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -17508,7 +17526,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -17530,7 +17548,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -17552,7 +17570,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -17574,7 +17592,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -17596,7 +17614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -17618,7 +17636,7 @@
         <v>4.1000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -17640,7 +17658,7 @@
         <v>3.3999999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -17662,7 +17680,7 @@
         <v>2.6000000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -17684,7 +17702,7 @@
         <v>5.3999999999999986</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -17706,7 +17724,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -17728,7 +17746,7 @@
         <v>2.3999999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -17750,7 +17768,7 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -17772,7 +17790,7 @@
         <v>1.8999999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -17794,7 +17812,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -17816,7 +17834,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -17838,7 +17856,7 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -17860,7 +17878,7 @@
         <v>2.6999999999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -17882,7 +17900,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -17904,7 +17922,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -17926,7 +17944,7 @@
         <v>3.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -17948,7 +17966,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -17970,7 +17988,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -17992,7 +18010,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -18014,7 +18032,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -18036,7 +18054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -18058,7 +18076,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -18080,7 +18098,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -18102,7 +18120,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -18124,7 +18142,7 @@
         <v>3.3000000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -18146,7 +18164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -18168,7 +18186,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -18190,7 +18208,7 @@
         <v>2.8000000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -18212,7 +18230,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -18234,7 +18252,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -18256,7 +18274,7 @@
         <v>1.5999999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -18278,7 +18296,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18300,7 +18318,7 @@
         <v>3.6999999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18322,7 +18340,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -18344,7 +18362,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -18366,7 +18384,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -18388,7 +18406,7 @@
         <v>3.6000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -18410,7 +18428,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -18432,7 +18450,7 @@
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -18454,7 +18472,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -18476,7 +18494,7 @@
         <v>2.0999999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -18498,7 +18516,7 @@
         <v>2.1999999999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -18520,7 +18538,7 @@
         <v>4.3999999999999986</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ref="A69:A82" si="3">1+A68</f>
         <v>87</v>
@@ -18542,7 +18560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -18564,7 +18582,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -18586,7 +18604,7 @@
         <v>2.1000000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -18608,7 +18626,7 @@
         <v>3.0999999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -18630,7 +18648,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -18652,7 +18670,7 @@
         <v>1.3999999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -18674,7 +18692,7 @@
         <v>0.79999999999999982</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -18696,7 +18714,7 @@
         <v>3.2999999999999989</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -18718,7 +18736,7 @@
         <v>2.3999999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -18740,7 +18758,7 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -18762,7 +18780,7 @@
         <v>1.8000000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -18784,7 +18802,7 @@
         <v>3.7000000000000011</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -18806,7 +18824,7 @@
         <v>2.4999999999999991</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -18840,19 +18858,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -18869,7 +18887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18887,7 +18905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18905,7 +18923,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>1+A3</f>
         <v>3</v>
@@ -18924,7 +18942,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" ref="A5:A33" si="1">1+A4</f>
         <v>4</v>
@@ -18943,7 +18961,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -18962,7 +18980,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -18981,7 +18999,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -19000,7 +19018,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -19019,7 +19037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -19038,7 +19056,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -19057,7 +19075,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -19076,7 +19094,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -19095,7 +19113,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -19114,7 +19132,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -19133,7 +19151,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -19152,7 +19170,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -19171,7 +19189,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -19190,7 +19208,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -19209,7 +19227,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -19228,7 +19246,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -19247,7 +19265,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -19266,7 +19284,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -19285,7 +19303,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -19304,7 +19322,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -19323,7 +19341,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -19342,7 +19360,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -19361,7 +19379,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -19380,7 +19398,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -19399,7 +19417,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -19418,7 +19436,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -19437,7 +19455,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -19456,7 +19474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -19487,14 +19505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="12" customWidth="1"/>
@@ -19507,7 +19525,7 @@
     <col min="9" max="9" width="16.1640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49" customHeight="1">
+    <row r="1" spans="1:12" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="23" t="s">
         <v>47</v>
       </c>
@@ -19522,7 +19540,7 @@
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="31" customHeight="1">
+    <row r="3" spans="1:12" s="6" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>53</v>
       </c>
@@ -19547,7 +19565,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>54</v>
       </c>
@@ -19571,7 +19589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>54</v>
       </c>
@@ -19595,7 +19613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
@@ -19619,7 +19637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>54</v>
       </c>
@@ -19643,7 +19661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>55</v>
       </c>
@@ -19667,7 +19685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
@@ -19691,7 +19709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
@@ -19715,7 +19733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>55</v>
       </c>
@@ -19739,7 +19757,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>56</v>
       </c>
@@ -19763,7 +19781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
@@ -19787,7 +19805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>56</v>
       </c>
@@ -19811,7 +19829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
@@ -19835,7 +19853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>57</v>
       </c>
@@ -19859,7 +19877,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>57</v>
       </c>
@@ -19883,7 +19901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>57</v>
       </c>
@@ -19907,7 +19925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>57</v>
       </c>
@@ -19931,7 +19949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>54</v>
       </c>
@@ -19955,7 +19973,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>54</v>
       </c>
@@ -19979,7 +19997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>54</v>
       </c>
@@ -20003,7 +20021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>54</v>
       </c>
@@ -20027,7 +20045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>55</v>
       </c>
@@ -20051,7 +20069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
@@ -20075,7 +20093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>55</v>
       </c>
@@ -20099,7 +20117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>55</v>
       </c>
@@ -20123,7 +20141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>56</v>
       </c>
@@ -20147,7 +20165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>56</v>
       </c>
@@ -20171,7 +20189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
@@ -20195,7 +20213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>56</v>
       </c>
@@ -20219,7 +20237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
@@ -20243,7 +20261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>57</v>
       </c>
@@ -20267,7 +20285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>57</v>
       </c>
@@ -20291,7 +20309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>57</v>
       </c>
@@ -20330,20 +20348,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="135.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -20351,7 +20369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43045</v>
       </c>
@@ -20359,7 +20377,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43055</v>
       </c>
@@ -20367,7 +20385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45">
+    <row r="4" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43069</v>
       </c>
@@ -20375,7 +20393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43089</v>
       </c>
@@ -20383,7 +20401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43104</v>
       </c>
@@ -20391,7 +20409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43123</v>
       </c>
@@ -20399,7 +20417,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43123</v>
       </c>
@@ -20407,7 +20425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43124</v>
       </c>
@@ -20415,7 +20433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43140</v>
       </c>
@@ -20423,7 +20441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43140</v>
       </c>
@@ -20431,7 +20449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43150</v>
       </c>
@@ -20439,7 +20457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43158</v>
       </c>
@@ -20447,7 +20465,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43159</v>
       </c>
